--- a/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-28.xlsx
+++ b/RMS-RA Data check/RMS-RA部门销售数据核对/表格/RMS-RA数据核对2016-06-28.xlsx
@@ -3126,11 +3126,17 @@
     <xf numFmtId="176" fontId="44" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="44" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="45" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3142,12 +3148,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -22034,7 +22034,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22054,7 +22054,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22091,7 +22091,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22111,7 +22111,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22146,7 +22146,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22166,7 +22166,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22203,7 +22203,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22223,7 +22223,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22258,7 +22258,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22278,7 +22278,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22315,7 +22315,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22335,7 +22335,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22370,7 +22370,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22390,7 +22390,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22427,7 +22427,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22447,7 +22447,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22482,7 +22482,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22502,7 +22502,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22539,7 +22539,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22559,7 +22559,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22594,7 +22594,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22614,7 +22614,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22651,7 +22651,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22671,7 +22671,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22706,7 +22706,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22726,7 +22726,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22763,7 +22763,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22783,7 +22783,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22818,7 +22818,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22838,7 +22838,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22875,7 +22875,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22895,7 +22895,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22930,7 +22930,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -22950,7 +22950,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -22987,7 +22987,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23007,7 +23007,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23042,7 +23042,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23062,7 +23062,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23099,7 +23099,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23119,7 +23119,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23154,7 +23154,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23174,7 +23174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -23211,7 +23211,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -23231,7 +23231,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45242,7 +45242,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45262,7 +45262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45299,7 +45299,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId450" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45319,7 +45319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45354,7 +45354,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45374,7 +45374,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45411,7 +45411,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId452" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45431,7 +45431,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45466,7 +45466,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45486,7 +45486,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45523,7 +45523,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId454" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45543,7 +45543,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45578,7 +45578,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45598,7 +45598,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45635,7 +45635,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId456" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45655,7 +45655,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45690,7 +45690,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45710,7 +45710,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45747,7 +45747,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId458" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45767,7 +45767,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45802,7 +45802,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45822,7 +45822,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45859,7 +45859,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId460" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45879,7 +45879,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45914,7 +45914,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45934,7 +45934,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45971,7 +45971,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId462" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -45991,7 +45991,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46026,7 +46026,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46046,7 +46046,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46083,7 +46083,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId464" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46103,7 +46103,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46138,7 +46138,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46158,7 +46158,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46195,7 +46195,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId466" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46215,7 +46215,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46250,7 +46250,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46270,7 +46270,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46307,7 +46307,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId468" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46327,7 +46327,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46362,7 +46362,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46382,7 +46382,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -46419,7 +46419,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId470" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -46439,7 +46439,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -58240,6 +58240,88 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId758" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19792950" y="0"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1316" name="Picture 1" descr="徽标"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="523875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1317" name="Picture 2" descr="cid:b4b35de513">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId759" tgtFrame="_blank"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId760" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -58550,7 +58632,7 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
@@ -58606,10 +58688,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="13"/>
       <c r="F2" s="24"/>
       <c r="G2" s="14"/>
@@ -58620,76 +58702,76 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="15">
         <f>SUM(E4:E42)</f>
-        <v>24535752.021899998</v>
+        <v>24173903.901199993</v>
       </c>
       <c r="F3" s="25">
         <f>RA!I7</f>
-        <v>-703064.37899999996</v>
+        <v>1505120.2061000001</v>
       </c>
       <c r="G3" s="16">
         <f>SUM(G4:G42)</f>
-        <v>25238816.400900003</v>
+        <v>22668783.695099995</v>
       </c>
       <c r="H3" s="27">
         <f>RA!J7</f>
-        <v>-2.8654690444069599</v>
+        <v>6.2262190345899597</v>
       </c>
       <c r="I3" s="20">
         <f>SUM(I4:I42)</f>
-        <v>21682544.959490743</v>
+        <v>24173911.223437406</v>
       </c>
       <c r="J3" s="21">
         <f>SUM(J4:J42)</f>
-        <v>22473055.29358191</v>
+        <v>22668783.393581912</v>
       </c>
       <c r="K3" s="22">
         <f>E3-I3</f>
-        <v>2853207.0624092557</v>
+        <v>-7.3222374133765697</v>
       </c>
       <c r="L3" s="22">
         <f>G3-J3</f>
-        <v>2765761.1073180921</v>
+        <v>0.30151808261871338</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="68">
+      <c r="A4" s="70">
         <f>RA!A8</f>
         <v>42549</v>
       </c>
       <c r="B4" s="12">
         <v>12</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="15">
         <f>VLOOKUP(C4,RA!B8:D35,3,0)</f>
-        <v>1418589.5696</v>
+        <v>1357859.3962000001</v>
       </c>
       <c r="F4" s="25">
         <f>VLOOKUP(C4,RA!B8:I38,8,0)</f>
-        <v>-127220.4679</v>
+        <v>230012.42869999999</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ref="G4:G42" si="0">E4-F4</f>
-        <v>1545810.0375000001</v>
+        <v>1127846.9675</v>
       </c>
       <c r="H4" s="27">
         <f>RA!J8</f>
-        <v>-8.96809553843487</v>
+        <v>16.9393406521835</v>
       </c>
       <c r="I4" s="20">
         <f>VLOOKUP(B4,RMS!B:D,3,FALSE)</f>
-        <v>1000627.16202393</v>
+        <v>1357860.5551863201</v>
       </c>
       <c r="J4" s="21">
         <f>VLOOKUP(B4,RMS!B:E,4,FALSE)</f>
@@ -58697,41 +58779,41 @@
       </c>
       <c r="K4" s="22">
         <f t="shared" ref="K4:K42" si="1">E4-I4</f>
-        <v>417962.40757607005</v>
+        <v>-1.158986320020631</v>
       </c>
       <c r="L4" s="22">
         <f t="shared" ref="L4:L42" si="2">G4-J4</f>
-        <v>417963.06175299012</v>
+        <v>-8.2470099441707134E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="68"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="12">
         <v>13</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="15">
         <f>VLOOKUP(C5,RA!B8:D36,3,0)</f>
-        <v>97164.4421</v>
+        <v>95134.249400000001</v>
       </c>
       <c r="F5" s="25">
         <f>VLOOKUP(C5,RA!B9:I39,8,0)</f>
-        <v>5147.6921000000002</v>
+        <v>21898.849399999999</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="0"/>
-        <v>92016.75</v>
+        <v>73235.399999999994</v>
       </c>
       <c r="H5" s="27">
         <f>RA!J9</f>
-        <v>5.2979176216563699</v>
+        <v>23.018891238553302</v>
       </c>
       <c r="I5" s="20">
         <f>VLOOKUP(B5,RMS!B:D,3,FALSE)</f>
-        <v>78383.110682051294</v>
+        <v>95134.298887179495</v>
       </c>
       <c r="J5" s="21">
         <f>VLOOKUP(B5,RMS!B:E,4,FALSE)</f>
@@ -58739,42 +58821,42 @@
       </c>
       <c r="K5" s="22">
         <f t="shared" si="1"/>
-        <v>18781.331417948706</v>
+        <v>-4.9487179494462907E-2</v>
       </c>
       <c r="L5" s="22">
         <f t="shared" si="2"/>
-        <v>18781.351702564105</v>
+        <v>1.702564099105075E-3</v>
       </c>
       <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="68"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="15">
         <f>VLOOKUP(C6,RA!B10:D37,3,0)</f>
-        <v>215096.49900000001</v>
+        <v>207120.59880000001</v>
       </c>
       <c r="F6" s="25">
         <f>VLOOKUP(C6,RA!B10:I40,8,0)</f>
-        <v>4201.2390999999998</v>
+        <v>51117.618900000001</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="0"/>
-        <v>210895.2599</v>
+        <v>156002.97990000001</v>
       </c>
       <c r="H6" s="27">
         <f>RA!J10</f>
-        <v>1.9531880432884201</v>
+        <v>24.680123172760901</v>
       </c>
       <c r="I6" s="20">
         <f>VLOOKUP(B6,RMS!B:D,3,FALSE)</f>
-        <v>160206.14875036699</v>
+        <v>207122.62738284501</v>
       </c>
       <c r="J6" s="21">
         <f>VLOOKUP(B6,RMS!B:E,4,FALSE)</f>
@@ -58782,42 +58864,42 @@
       </c>
       <c r="K6" s="22">
         <f>E6-I6</f>
-        <v>54890.350249633018</v>
+        <v>-2.0285828449996188</v>
       </c>
       <c r="L6" s="22">
         <f t="shared" si="2"/>
-        <v>54892.279368090007</v>
+        <v>-6.3190999208018184E-4</v>
       </c>
       <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="68"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="12">
         <v>15</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="15">
         <f>VLOOKUP(C7,RA!B10:D38,3,0)</f>
-        <v>93488.018899999995</v>
+        <v>89838.060500000007</v>
       </c>
       <c r="F7" s="25">
         <f>VLOOKUP(C7,RA!B11:I41,8,0)</f>
-        <v>-3036.7206999999999</v>
+        <v>18479.090899999999</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" si="0"/>
-        <v>96524.739600000001</v>
+        <v>71358.969600000011</v>
       </c>
       <c r="H7" s="27">
         <f>RA!J11</f>
-        <v>-3.2482458562398699</v>
+        <v>20.569334196612601</v>
       </c>
       <c r="I7" s="20">
         <f>VLOOKUP(B7,RMS!B:D,3,FALSE)</f>
-        <v>68322.280769903897</v>
+        <v>89838.109602821307</v>
       </c>
       <c r="J7" s="21">
         <f>VLOOKUP(B7,RMS!B:E,4,FALSE)</f>
@@ -58825,42 +58907,42 @@
       </c>
       <c r="K7" s="22">
         <f t="shared" si="1"/>
-        <v>25165.738130096099</v>
+        <v>-4.9102821300039068E-2</v>
       </c>
       <c r="L7" s="22">
         <f t="shared" si="2"/>
-        <v>25165.770348188496</v>
+        <v>3.4818850690498948E-4</v>
       </c>
       <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="68"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="12">
         <v>16</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="15">
         <f>VLOOKUP(C8,RA!B12:D38,3,0)</f>
-        <v>817964.98899999994</v>
+        <v>757617.10069999995</v>
       </c>
       <c r="F8" s="25">
         <f>VLOOKUP(C8,RA!B12:I42,8,0)</f>
-        <v>-129558.5775</v>
+        <v>225428.62419999999</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
-        <v>947523.56649999996</v>
+        <v>532188.47649999999</v>
       </c>
       <c r="H8" s="27">
         <f>RA!J12</f>
-        <v>-15.839134833679299</v>
+        <v>29.754954579525101</v>
       </c>
       <c r="I8" s="20">
         <f>VLOOKUP(B8,RMS!B:D,3,FALSE)</f>
-        <v>402629.93345213699</v>
+        <v>757617.18986239296</v>
       </c>
       <c r="J8" s="21">
         <f>VLOOKUP(B8,RMS!B:E,4,FALSE)</f>
@@ -58868,42 +58950,42 @@
       </c>
       <c r="K8" s="22">
         <f t="shared" si="1"/>
-        <v>415335.05554786295</v>
+        <v>-8.9162393007427454E-2</v>
       </c>
       <c r="L8" s="22">
         <f t="shared" si="2"/>
-        <v>415335.085909402</v>
+        <v>-4.0905979694798589E-3</v>
       </c>
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="68"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="12">
         <v>17</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="66"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="15">
         <f>VLOOKUP(C9,RA!B12:D39,3,0)</f>
-        <v>477967.34960000002</v>
+        <v>453775.05200000003</v>
       </c>
       <c r="F9" s="25">
         <f>VLOOKUP(C9,RA!B13:I43,8,0)</f>
-        <v>-28802.5062</v>
+        <v>113504.2062</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="0"/>
-        <v>506769.85580000002</v>
+        <v>340270.84580000001</v>
       </c>
       <c r="H9" s="27">
         <f>RA!J13</f>
-        <v>-6.02604052852233</v>
+        <v>25.013320080011798</v>
       </c>
       <c r="I9" s="20">
         <f>VLOOKUP(B9,RMS!B:D,3,FALSE)</f>
-        <v>311468.57576239301</v>
+        <v>453775.42191623902</v>
       </c>
       <c r="J9" s="21">
         <f>VLOOKUP(B9,RMS!B:E,4,FALSE)</f>
@@ -58911,42 +58993,42 @@
       </c>
       <c r="K9" s="22">
         <f t="shared" si="1"/>
-        <v>166498.773837607</v>
+        <v>-0.36991623899666592</v>
       </c>
       <c r="L9" s="22">
         <f t="shared" si="2"/>
-        <v>166499.01847265003</v>
+        <v>8.4726500208489597E-3</v>
       </c>
       <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="68"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="12">
         <v>18</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="66"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="15">
         <f>VLOOKUP(C10,RA!B14:D40,3,0)</f>
-        <v>104163.39780000001</v>
+        <v>103779.9722</v>
       </c>
       <c r="F10" s="25">
         <f>VLOOKUP(C10,RA!B14:I43,8,0)</f>
-        <v>20230.104800000001</v>
+        <v>22485.549200000001</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" si="0"/>
-        <v>83933.293000000005</v>
+        <v>81294.42300000001</v>
       </c>
       <c r="H10" s="27">
         <f>RA!J14</f>
-        <v>19.421510076738301</v>
+        <v>21.666559282427698</v>
       </c>
       <c r="I10" s="20">
         <f>VLOOKUP(B10,RMS!B:D,3,FALSE)</f>
-        <v>101524.538000855</v>
+        <v>103779.982445299</v>
       </c>
       <c r="J10" s="21">
         <f>VLOOKUP(B10,RMS!B:E,4,FALSE)</f>
@@ -58954,42 +59036,42 @@
       </c>
       <c r="K10" s="22">
         <f t="shared" si="1"/>
-        <v>2638.8597991450079</v>
+        <v>-1.0245298995869234E-2</v>
       </c>
       <c r="L10" s="22">
         <f t="shared" si="2"/>
-        <v>2638.8688059829001</v>
+        <v>-1.1940170952584594E-3</v>
       </c>
       <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="68"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="12">
         <v>19</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="66"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="15">
         <f>VLOOKUP(C11,RA!B14:D41,3,0)</f>
-        <v>139789.36919999999</v>
+        <v>134359.9976</v>
       </c>
       <c r="F11" s="25">
         <f>VLOOKUP(C11,RA!B15:I44,8,0)</f>
-        <v>-14487.772999999999</v>
+        <v>17448.955399999999</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" si="0"/>
-        <v>154277.14219999997</v>
+        <v>116911.0422</v>
       </c>
       <c r="H11" s="27">
         <f>RA!J15</f>
-        <v>-10.364001985925</v>
+        <v>12.986719047098299</v>
       </c>
       <c r="I11" s="20">
         <f>VLOOKUP(B11,RMS!B:D,3,FALSE)</f>
-        <v>102423.407652137</v>
+        <v>134360.245258974</v>
       </c>
       <c r="J11" s="21">
         <f>VLOOKUP(B11,RMS!B:E,4,FALSE)</f>
@@ -58997,42 +59079,42 @@
       </c>
       <c r="K11" s="22">
         <f t="shared" si="1"/>
-        <v>37365.961547862986</v>
+        <v>-0.24765897399629466</v>
       </c>
       <c r="L11" s="22">
         <f t="shared" si="2"/>
-        <v>37366.099539315968</v>
+        <v>-4.6068400843068957E-4</v>
       </c>
       <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="68"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="12">
         <v>21</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="15">
         <f>VLOOKUP(C12,RA!B16:D42,3,0)</f>
-        <v>1247394.6529000001</v>
+        <v>1227278.5906</v>
       </c>
       <c r="F12" s="25">
         <f>VLOOKUP(C12,RA!B16:I45,8,0)</f>
-        <v>-68537.348100000003</v>
+        <v>62175.3796</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" si="0"/>
-        <v>1315932.0010000002</v>
+        <v>1165103.2109999999</v>
       </c>
       <c r="H12" s="27">
         <f>RA!J16</f>
-        <v>-5.4944397862105001</v>
+        <v>5.0661178379721701</v>
       </c>
       <c r="I12" s="20">
         <f>VLOOKUP(B12,RMS!B:D,3,FALSE)</f>
-        <v>1096565.0749649601</v>
+        <v>1227277.77105451</v>
       </c>
       <c r="J12" s="21">
         <f>VLOOKUP(B12,RMS!B:E,4,FALSE)</f>
@@ -59040,42 +59122,42 @@
       </c>
       <c r="K12" s="22">
         <f t="shared" si="1"/>
-        <v>150829.57793504</v>
+        <v>0.819545489968732</v>
       </c>
       <c r="L12" s="22">
         <f t="shared" si="2"/>
-        <v>150828.79001453007</v>
+        <v>1.4529796317219734E-5</v>
       </c>
       <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="68"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="12">
         <v>22</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="66"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="15">
         <f>VLOOKUP(C13,RA!B16:D43,3,0)</f>
-        <v>773943.72510000004</v>
+        <v>765665.18889999995</v>
       </c>
       <c r="F13" s="25">
         <f>VLOOKUP(C13,RA!B17:I46,8,0)</f>
-        <v>2065.6215999999999</v>
+        <v>50762.615400000002</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" si="0"/>
-        <v>771878.10350000008</v>
+        <v>714902.57349999994</v>
       </c>
       <c r="H13" s="27">
         <f>RA!J17</f>
-        <v>0.26689558077793102</v>
+        <v>6.6298711415793301</v>
       </c>
       <c r="I13" s="20">
         <f>VLOOKUP(B13,RMS!B:D,3,FALSE)</f>
-        <v>716967.76737521403</v>
+        <v>765664.80156324804</v>
       </c>
       <c r="J13" s="21">
         <f>VLOOKUP(B13,RMS!B:E,4,FALSE)</f>
@@ -59083,42 +59165,42 @@
       </c>
       <c r="K13" s="22">
         <f t="shared" si="1"/>
-        <v>56975.957724786014</v>
+        <v>0.38733675191178918</v>
       </c>
       <c r="L13" s="22">
         <f t="shared" si="2"/>
-        <v>56975.531482051127</v>
+        <v>1.4820509823039174E-3</v>
       </c>
       <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="68"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="12">
         <v>23</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="66"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="15">
         <f>VLOOKUP(C14,RA!B18:D43,3,0)</f>
-        <v>2187689.0326999999</v>
+        <v>2181088.3709</v>
       </c>
       <c r="F14" s="25">
         <f>VLOOKUP(C14,RA!B18:I47,8,0)</f>
-        <v>167947.45759999999</v>
+        <v>206776.95139999999</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="0"/>
-        <v>2019741.5750999998</v>
+        <v>1974311.4195000001</v>
       </c>
       <c r="H14" s="27">
         <f>RA!J18</f>
-        <v>7.6769346598004704</v>
+        <v>9.4804481174999804</v>
       </c>
       <c r="I14" s="20">
         <f>VLOOKUP(B14,RMS!B:D,3,FALSE)</f>
-        <v>2142259.0349393198</v>
+        <v>2181088.5496633202</v>
       </c>
       <c r="J14" s="21">
         <f>VLOOKUP(B14,RMS!B:E,4,FALSE)</f>
@@ -59126,42 +59208,42 @@
       </c>
       <c r="K14" s="22">
         <f t="shared" si="1"/>
-        <v>45429.997760680038</v>
+        <v>-0.17876332020387053</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="2"/>
-        <v>45430.298714529723</v>
+        <v>0.14311453001573682</v>
       </c>
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="68"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="12">
         <v>24</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="15">
         <f>VLOOKUP(C15,RA!B18:D44,3,0)</f>
-        <v>450435.05300000001</v>
+        <v>445997.62829999998</v>
       </c>
       <c r="F15" s="25">
         <f>VLOOKUP(C15,RA!B19:I48,8,0)</f>
-        <v>-6330.4543999999996</v>
+        <v>19799.890899999999</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="0"/>
-        <v>456765.5074</v>
+        <v>426197.73739999998</v>
       </c>
       <c r="H15" s="27">
         <f>RA!J19</f>
-        <v>-1.40540891696544</v>
+        <v>4.4394610293043097</v>
       </c>
       <c r="I15" s="20">
         <f>VLOOKUP(B15,RMS!B:D,3,FALSE)</f>
-        <v>419867.26600598299</v>
+        <v>445997.604785198</v>
       </c>
       <c r="J15" s="21">
         <f>VLOOKUP(B15,RMS!B:E,4,FALSE)</f>
@@ -59169,42 +59251,42 @@
       </c>
       <c r="K15" s="22">
         <f t="shared" si="1"/>
-        <v>30567.78699401702</v>
+        <v>2.3514801985584199E-2</v>
       </c>
       <c r="L15" s="22">
         <f t="shared" si="2"/>
-        <v>30567.769988033979</v>
+        <v>-1.1966039892286062E-5</v>
       </c>
       <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="68"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="12">
         <v>25</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="66"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="15">
         <f>VLOOKUP(C16,RA!B20:D45,3,0)</f>
-        <v>1528951.6850999999</v>
+        <v>1517801.4556</v>
       </c>
       <c r="F16" s="25">
         <f>VLOOKUP(C16,RA!B20:I49,8,0)</f>
-        <v>3174.1983</v>
+        <v>85984.008799999996</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" si="0"/>
-        <v>1525777.4867999998</v>
+        <v>1431817.4468</v>
       </c>
       <c r="H16" s="27">
         <f>RA!J20</f>
-        <v>0.20760618735917699</v>
+        <v>5.66503665435014</v>
       </c>
       <c r="I16" s="20">
         <f>VLOOKUP(B16,RMS!B:D,3,FALSE)</f>
-        <v>1434991.8585000001</v>
+        <v>1517801.7049564</v>
       </c>
       <c r="J16" s="21">
         <f>VLOOKUP(B16,RMS!B:E,4,FALSE)</f>
@@ -59212,42 +59294,42 @@
       </c>
       <c r="K16" s="22">
         <f t="shared" si="1"/>
-        <v>93959.826599999797</v>
+        <v>-0.24935639998875558</v>
       </c>
       <c r="L16" s="22">
         <f t="shared" si="2"/>
-        <v>93960.039999999804</v>
+        <v>0</v>
       </c>
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="68"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="12">
         <v>26</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="15">
         <f>VLOOKUP(C17,RA!B20:D46,3,0)</f>
-        <v>321247.4901</v>
+        <v>319742.57929999998</v>
       </c>
       <c r="F17" s="25">
         <f>VLOOKUP(C17,RA!B21:I50,8,0)</f>
-        <v>27592.024600000001</v>
+        <v>38420.813800000004</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="0"/>
-        <v>293655.46549999999</v>
+        <v>281321.76549999998</v>
       </c>
       <c r="H17" s="27">
         <f>RA!J21</f>
-        <v>8.58902417927405</v>
+        <v>12.01617059702</v>
       </c>
       <c r="I17" s="20">
         <f>VLOOKUP(B17,RMS!B:D,3,FALSE)</f>
-        <v>308913.31298727798</v>
+        <v>319742.06961007498</v>
       </c>
       <c r="J17" s="21">
         <f>VLOOKUP(B17,RMS!B:E,4,FALSE)</f>
@@ -59255,42 +59337,42 @@
       </c>
       <c r="K17" s="22">
         <f t="shared" si="1"/>
-        <v>12334.177112722013</v>
+        <v>0.50968992500565946</v>
       </c>
       <c r="L17" s="22">
         <f t="shared" si="2"/>
-        <v>12333.700359541981</v>
+        <v>3.5954196937382221E-4</v>
       </c>
       <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="68"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="12">
         <v>27</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="15">
         <f>VLOOKUP(C18,RA!B22:D47,3,0)</f>
-        <v>1175230.5282999999</v>
+        <v>1171032.1732000001</v>
       </c>
       <c r="F18" s="25">
         <f>VLOOKUP(C18,RA!B22:I51,8,0)</f>
-        <v>6692.6562999999996</v>
+        <v>31986.458999999999</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="0"/>
-        <v>1168537.872</v>
+        <v>1139045.7142</v>
       </c>
       <c r="H18" s="27">
         <f>RA!J22</f>
-        <v>0.56947604226049997</v>
+        <v>2.7314756786393599</v>
       </c>
       <c r="I18" s="20">
         <f>VLOOKUP(B18,RMS!B:D,3,FALSE)</f>
-        <v>1145739.0804820601</v>
+        <v>1171032.9372227001</v>
       </c>
       <c r="J18" s="21">
         <f>VLOOKUP(B18,RMS!B:E,4,FALSE)</f>
@@ -59298,42 +59380,42 @@
       </c>
       <c r="K18" s="22">
         <f t="shared" si="1"/>
-        <v>29491.447817939799</v>
+        <v>-0.76402270002290606</v>
       </c>
       <c r="L18" s="22">
         <f t="shared" si="2"/>
-        <v>29492.158244099934</v>
+        <v>4.4410000555217266E-4</v>
       </c>
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="68"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="12">
         <v>29</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="15">
         <f>VLOOKUP(C19,RA!B22:D48,3,0)</f>
-        <v>5018315.1666999999</v>
+        <v>4886044.1536999997</v>
       </c>
       <c r="F19" s="25">
         <f>VLOOKUP(C19,RA!B23:I52,8,0)</f>
-        <v>-825536.82449999999</v>
+        <v>-47013.747499999998</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" si="0"/>
-        <v>5843851.9912</v>
+        <v>4933057.9011999993</v>
       </c>
       <c r="H19" s="27">
         <f>RA!J23</f>
-        <v>-16.450477841208698</v>
+        <v>-0.96220472065113105</v>
       </c>
       <c r="I19" s="20">
         <f>VLOOKUP(B19,RMS!B:D,3,FALSE)</f>
-        <v>4107522.7011623899</v>
+        <v>4886046.7844102597</v>
       </c>
       <c r="J19" s="21">
         <f>VLOOKUP(B19,RMS!B:E,4,FALSE)</f>
@@ -59341,42 +59423,42 @@
       </c>
       <c r="K19" s="22">
         <f t="shared" si="1"/>
-        <v>910792.46553761</v>
+        <v>-2.6307102600112557</v>
       </c>
       <c r="L19" s="22">
         <f t="shared" si="2"/>
-        <v>910794.06825556047</v>
+        <v>-2.174444030970335E-2</v>
       </c>
       <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="68"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="12">
         <v>31</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="66"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="15">
         <f>VLOOKUP(C20,RA!B24:D49,3,0)</f>
-        <v>273789.47690000001</v>
+        <v>273276.9804</v>
       </c>
       <c r="F20" s="25">
         <f>VLOOKUP(C20,RA!B24:I53,8,0)</f>
-        <v>35378.910400000001</v>
+        <v>38503.044800000003</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" si="0"/>
-        <v>238410.56650000002</v>
+        <v>234773.9356</v>
       </c>
       <c r="H20" s="27">
         <f>RA!J24</f>
-        <v>12.92193944069</v>
+        <v>14.0893846029923</v>
       </c>
       <c r="I20" s="20">
         <f>VLOOKUP(B20,RMS!B:D,3,FALSE)</f>
-        <v>270152.96377666597</v>
+        <v>273277.10619998199</v>
       </c>
       <c r="J20" s="21">
         <f>VLOOKUP(B20,RMS!B:E,4,FALSE)</f>
@@ -59384,42 +59466,42 @@
       </c>
       <c r="K20" s="22">
         <f t="shared" si="1"/>
-        <v>3636.5131233340362</v>
+        <v>-0.12579998199362308</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="2"/>
-        <v>3636.6228479080019</v>
+        <v>-8.0520920164417475E-3</v>
       </c>
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="68"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="66"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="15">
         <f>VLOOKUP(C21,RA!B24:D50,3,0)</f>
-        <v>235575.93100000001</v>
+        <v>235101.14230000001</v>
       </c>
       <c r="F21" s="25">
         <f>VLOOKUP(C21,RA!B25:I54,8,0)</f>
-        <v>17537.5867</v>
+        <v>21264.1944</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="0"/>
-        <v>218038.3443</v>
+        <v>213836.9479</v>
       </c>
       <c r="H21" s="27">
         <f>RA!J25</f>
-        <v>7.4445579501922898</v>
+        <v>9.0447005879988005</v>
       </c>
       <c r="I21" s="20">
         <f>VLOOKUP(B21,RMS!B:D,3,FALSE)</f>
-        <v>231374.51644775699</v>
+        <v>235101.12179585401</v>
       </c>
       <c r="J21" s="21">
         <f>VLOOKUP(B21,RMS!B:E,4,FALSE)</f>
@@ -59427,42 +59509,42 @@
       </c>
       <c r="K21" s="22">
         <f t="shared" si="1"/>
-        <v>4201.414552243019</v>
+        <v>2.0504145999439061E-2</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="2"/>
-        <v>4201.4008011090045</v>
+        <v>4.4011090067215264E-3</v>
       </c>
       <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="68"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="12">
         <v>33</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="15">
         <f>VLOOKUP(C22,RA!B26:D51,3,0)</f>
-        <v>695659.74060000002</v>
+        <v>693660.59129999997</v>
       </c>
       <c r="F22" s="25">
         <f>VLOOKUP(C22,RA!B26:I55,8,0)</f>
-        <v>108698.9494</v>
+        <v>123536.2515</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" si="0"/>
-        <v>586960.79119999998</v>
+        <v>570124.33979999996</v>
       </c>
       <c r="H22" s="27">
         <f>RA!J26</f>
-        <v>15.6253040180603</v>
+        <v>17.809322462514199</v>
       </c>
       <c r="I22" s="20">
         <f>VLOOKUP(B22,RMS!B:D,3,FALSE)</f>
-        <v>678823.24852987705</v>
+        <v>693660.54748610803</v>
       </c>
       <c r="J22" s="21">
         <f>VLOOKUP(B22,RMS!B:E,4,FALSE)</f>
@@ -59470,42 +59552,42 @@
       </c>
       <c r="K22" s="22">
         <f t="shared" si="1"/>
-        <v>16836.492070122971</v>
+        <v>4.3813891941681504E-2</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="2"/>
-        <v>16836.455371443997</v>
+        <v>3.9714439772069454E-3</v>
       </c>
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="68"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="12">
         <v>34</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="66"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="15">
         <f>VLOOKUP(C23,RA!B26:D52,3,0)</f>
-        <v>193486.48420000001</v>
+        <v>193117.55189999999</v>
       </c>
       <c r="F23" s="25">
         <f>VLOOKUP(C23,RA!B27:I56,8,0)</f>
-        <v>50630.1734</v>
+        <v>52837.565799999997</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" si="0"/>
-        <v>142856.31080000001</v>
+        <v>140279.98609999998</v>
       </c>
       <c r="H23" s="27">
         <f>RA!J27</f>
-        <v>26.167292051089898</v>
+        <v>27.360312555826301</v>
       </c>
       <c r="I23" s="20">
         <f>VLOOKUP(B23,RMS!B:D,3,FALSE)</f>
-        <v>190909.980812639</v>
+        <v>193117.365900681</v>
       </c>
       <c r="J23" s="21">
         <f>VLOOKUP(B23,RMS!B:E,4,FALSE)</f>
@@ -59513,42 +59595,42 @@
       </c>
       <c r="K23" s="22">
         <f t="shared" si="1"/>
-        <v>2576.5033873610082</v>
+        <v>0.18599931898643263</v>
       </c>
       <c r="L23" s="22">
         <f t="shared" si="2"/>
-        <v>2576.3258995030192</v>
+        <v>1.199502992676571E-3</v>
       </c>
       <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="68"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="12">
         <v>35</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="66"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="15">
         <f>VLOOKUP(C24,RA!B28:D53,3,0)</f>
-        <v>851336.33330000006</v>
+        <v>851333.75439999998</v>
       </c>
       <c r="F24" s="25">
         <f>VLOOKUP(C24,RA!B28:I57,8,0)</f>
-        <v>20886.3786</v>
+        <v>39662.44</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" si="0"/>
-        <v>830449.9547</v>
+        <v>811671.31440000003</v>
       </c>
       <c r="H24" s="27">
         <f>RA!J28</f>
-        <v>2.4533639389075499</v>
+        <v>4.6588590896355502</v>
       </c>
       <c r="I24" s="20">
         <f>VLOOKUP(B24,RMS!B:D,3,FALSE)</f>
-        <v>832558.69190442504</v>
+        <v>851334.75309920404</v>
       </c>
       <c r="J24" s="21">
         <f>VLOOKUP(B24,RMS!B:E,4,FALSE)</f>
@@ -59556,42 +59638,42 @@
       </c>
       <c r="K24" s="22">
         <f t="shared" si="1"/>
-        <v>18777.641395575018</v>
+        <v>-0.99869920406490564</v>
       </c>
       <c r="L24" s="22">
         <f t="shared" si="2"/>
-        <v>18778.645884956</v>
+        <v>5.5849560303613544E-3</v>
       </c>
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="68"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="12">
         <v>36</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="66"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="15">
         <f>VLOOKUP(C25,RA!B28:D54,3,0)</f>
-        <v>547960.31090000004</v>
+        <v>547958.77639999997</v>
       </c>
       <c r="F25" s="25">
         <f>VLOOKUP(C25,RA!B29:I58,8,0)</f>
-        <v>89167.555699999997</v>
+        <v>95780.063200000004</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" si="0"/>
-        <v>458792.75520000001</v>
+        <v>452178.7132</v>
       </c>
       <c r="H25" s="27">
         <f>RA!J29</f>
-        <v>16.272630321262898</v>
+        <v>17.4794286222149</v>
       </c>
       <c r="I25" s="20">
         <f>VLOOKUP(B25,RMS!B:D,3,FALSE)</f>
-        <v>541346.73062654899</v>
+        <v>547959.24120539799</v>
       </c>
       <c r="J25" s="21">
         <f>VLOOKUP(B25,RMS!B:E,4,FALSE)</f>
@@ -59599,42 +59681,42 @@
       </c>
       <c r="K25" s="22">
         <f t="shared" si="1"/>
-        <v>6613.5802734510507</v>
+        <v>-0.46480539801996201</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="2"/>
-        <v>6614.0387393910205</v>
+        <v>-3.2606089953333139E-3</v>
       </c>
       <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="68"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="12">
         <v>37</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="15">
         <f>VLOOKUP(C26,RA!B30:D55,3,0)</f>
-        <v>1144177.0637999999</v>
+        <v>1141678.2472000001</v>
       </c>
       <c r="F26" s="25">
         <f>VLOOKUP(C26,RA!B30:I59,8,0)</f>
-        <v>139176.15549999999</v>
+        <v>158397.90160000001</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" si="0"/>
-        <v>1005000.9082999999</v>
+        <v>983280.34560000012</v>
       </c>
       <c r="H26" s="27">
         <f>RA!J30</f>
-        <v>12.163865183398499</v>
+        <v>13.874128020611399</v>
       </c>
       <c r="I26" s="20">
         <f>VLOOKUP(B26,RMS!B:D,3,FALSE)</f>
-        <v>1122456.4532885</v>
+        <v>1141678.18856283</v>
       </c>
       <c r="J26" s="21">
         <f>VLOOKUP(B26,RMS!B:E,4,FALSE)</f>
@@ -59642,42 +59724,42 @@
       </c>
       <c r="K26" s="22">
         <f t="shared" si="1"/>
-        <v>21720.610511499923</v>
+        <v>5.8637170121073723E-2</v>
       </c>
       <c r="L26" s="22">
         <f t="shared" si="2"/>
-        <v>21720.597640262917</v>
+        <v>3.4940263140015304E-2</v>
       </c>
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="68"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="12">
         <v>38</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="66"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="15">
         <f>VLOOKUP(C27,RA!B30:D56,3,0)</f>
-        <v>1291745.2714</v>
+        <v>1290035.3384</v>
       </c>
       <c r="F27" s="25">
         <f>VLOOKUP(C27,RA!B31:I60,8,0)</f>
-        <v>-19910.969700000001</v>
+        <v>-3810.0018</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="0"/>
-        <v>1311656.2411</v>
+        <v>1293845.3402</v>
       </c>
       <c r="H27" s="27">
         <f>RA!J31</f>
-        <v>-1.54140062602439</v>
+        <v>-0.29534088614389897</v>
       </c>
       <c r="I27" s="20">
         <f>VLOOKUP(B27,RMS!B:D,3,FALSE)</f>
-        <v>1273934.39573717</v>
+        <v>1290035.3693091201</v>
       </c>
       <c r="J27" s="21">
         <f>VLOOKUP(B27,RMS!B:E,4,FALSE)</f>
@@ -59685,42 +59767,42 @@
       </c>
       <c r="K27" s="22">
         <f t="shared" si="1"/>
-        <v>17810.87566282996</v>
+        <v>-3.0909120105206966E-2</v>
       </c>
       <c r="L27" s="22">
         <f t="shared" si="2"/>
-        <v>17811.04908142006</v>
+        <v>0.14818142005242407</v>
       </c>
       <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="68"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="12">
         <v>39</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="66"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="15">
         <f>VLOOKUP(C28,RA!B32:D57,3,0)</f>
-        <v>93318.530799999993</v>
+        <v>93195.043699999995</v>
       </c>
       <c r="F28" s="25">
         <f>VLOOKUP(C28,RA!B32:I61,8,0)</f>
-        <v>21281.659800000001</v>
+        <v>22025.1342</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" si="0"/>
-        <v>72036.870999999985</v>
+        <v>71169.909499999994</v>
       </c>
       <c r="H28" s="27">
         <f>RA!J32</f>
-        <v>22.805395260251998</v>
+        <v>23.633375043956299</v>
       </c>
       <c r="I28" s="20">
         <f>VLOOKUP(B28,RMS!B:D,3,FALSE)</f>
-        <v>92451.477911058202</v>
+        <v>93194.950336063805</v>
       </c>
       <c r="J28" s="21">
         <f>VLOOKUP(B28,RMS!B:E,4,FALSE)</f>
@@ -59728,23 +59810,23 @@
       </c>
       <c r="K28" s="22">
         <f t="shared" si="1"/>
-        <v>867.05288894179102</v>
+        <v>9.3363936190144159E-2</v>
       </c>
       <c r="L28" s="22">
         <f t="shared" si="2"/>
-        <v>866.95122560099117</v>
+        <v>-1.0274398999172263E-2</v>
       </c>
       <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="68"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="12">
         <v>40</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="66"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="15">
         <f>VLOOKUP(C29,RA!B32:D58,3,0)</f>
         <v>0</v>
@@ -59780,33 +59862,33 @@
       <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="68"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="12">
         <v>42</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="66"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="15">
         <f>VLOOKUP(C30,RA!B34:D60,3,0)</f>
-        <v>197980.09150000001</v>
+        <v>197975.80710000001</v>
       </c>
       <c r="F30" s="25">
         <f>VLOOKUP(C30,RA!B34:I64,8,0)</f>
-        <v>21126.051200000002</v>
+        <v>23199.435700000002</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" si="0"/>
-        <v>176854.04029999999</v>
+        <v>174776.3714</v>
       </c>
       <c r="H30" s="27">
         <f>RA!J34</f>
-        <v>10.670795755238901</v>
+        <v>11.7183185359016</v>
       </c>
       <c r="I30" s="20">
         <f>VLOOKUP(B30,RMS!B:D,3,FALSE)</f>
-        <v>195902.43640000001</v>
+        <v>197975.820650821</v>
       </c>
       <c r="J30" s="21">
         <f>VLOOKUP(B30,RMS!B:E,4,FALSE)</f>
@@ -59814,16 +59896,16 @@
       </c>
       <c r="K30" s="22">
         <f t="shared" si="1"/>
-        <v>2077.6551000000036</v>
+        <v>-1.3550820993259549E-2</v>
       </c>
       <c r="L30" s="22">
         <f t="shared" si="2"/>
-        <v>2077.674399999989</v>
+        <v>5.4999999993015081E-3</v>
       </c>
       <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" s="36" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="68"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="12">
         <v>43</v>
       </c>
@@ -59833,23 +59915,23 @@
       <c r="D31" s="42"/>
       <c r="E31" s="15">
         <f>VLOOKUP(C31,RA!B35:D61,3,0)</f>
-        <v>8356.2232000000004</v>
+        <v>8209.5647000000008</v>
       </c>
       <c r="F31" s="25">
         <f>VLOOKUP(C31,RA!B35:I65,8,0)</f>
-        <v>-719.10479999999995</v>
+        <v>143.58940000000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" si="0"/>
-        <v>9075.3279999999995</v>
+        <v>8065.975300000001</v>
       </c>
       <c r="H31" s="27">
         <f>RA!J35</f>
-        <v>-8.6056198211651402</v>
+        <v>1.7490501049343099</v>
       </c>
       <c r="I31" s="20">
         <f>VLOOKUP(B31,RMS!B:D,3,FALSE)</f>
-        <v>7346.8761999999997</v>
+        <v>8209.5705675213703</v>
       </c>
       <c r="J31" s="21">
         <f>VLOOKUP(B31,RMS!B:E,4,FALSE)</f>
@@ -59857,22 +59939,22 @@
       </c>
       <c r="K31" s="22">
         <f t="shared" si="1"/>
-        <v>1009.3470000000007</v>
+        <v>-5.8675213695096318E-3</v>
       </c>
       <c r="L31" s="22">
         <f t="shared" si="2"/>
-        <v>1009.3539999999994</v>
+        <v>1.3000000008105417E-3</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="35" customFormat="1" ht="12" thickBot="1">
-      <c r="A32" s="68"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="12">
         <v>70</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="70"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="15">
         <f>VLOOKUP(C32,RA!B34:D61,3,0)</f>
         <v>163970.15</v>
@@ -59887,34 +59969,34 @@
       </c>
       <c r="H32" s="27">
         <f>RA!J34</f>
-        <v>10.670795755238901</v>
+        <v>11.7183185359016</v>
       </c>
       <c r="I32" s="20">
         <f>VLOOKUP(B32,RMS!B:D,3,FALSE)</f>
-        <v>253059.98</v>
+        <v>163970.15</v>
       </c>
       <c r="J32" s="21">
         <f>VLOOKUP(B32,RMS!B:E,4,FALSE)</f>
-        <v>264562.58</v>
+        <v>172938.07</v>
       </c>
       <c r="K32" s="22">
         <f t="shared" si="1"/>
-        <v>-89089.830000000016</v>
+        <v>0</v>
       </c>
       <c r="L32" s="22">
         <f t="shared" si="2"/>
-        <v>-91624.510000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="68"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="12">
         <v>71</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="66"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="15">
         <f>VLOOKUP(C33,RA!B34:D61,3,0)</f>
         <v>1164379.54</v>
@@ -59929,35 +60011,35 @@
       </c>
       <c r="H33" s="27">
         <f>RA!J34</f>
-        <v>10.670795755238901</v>
+        <v>11.7183185359016</v>
       </c>
       <c r="I33" s="20">
         <f>VLOOKUP(B33,RMS!B:D,3,FALSE)</f>
-        <v>447716.28</v>
+        <v>1164379.54</v>
       </c>
       <c r="J33" s="21">
         <f>VLOOKUP(B33,RMS!B:E,4,FALSE)</f>
-        <v>555179.77</v>
+        <v>1214564.45</v>
       </c>
       <c r="K33" s="22">
         <f t="shared" si="1"/>
-        <v>716663.26</v>
+        <v>0</v>
       </c>
       <c r="L33" s="22">
         <f t="shared" si="2"/>
-        <v>659384.67999999993</v>
+        <v>0</v>
       </c>
       <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="68"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="12">
         <v>72</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="66"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="15">
         <f>VLOOKUP(C34,RA!B34:D62,3,0)</f>
         <v>593392.4</v>
@@ -59972,35 +60054,35 @@
       </c>
       <c r="H34" s="27">
         <f>RA!J35</f>
-        <v>-8.6056198211651402</v>
+        <v>1.7490501049343099</v>
       </c>
       <c r="I34" s="20">
         <f>VLOOKUP(B34,RMS!B:D,3,FALSE)</f>
-        <v>708780.39</v>
+        <v>593392.4</v>
       </c>
       <c r="J34" s="21">
         <f>VLOOKUP(B34,RMS!B:E,4,FALSE)</f>
-        <v>783828</v>
+        <v>664641.17000000004</v>
       </c>
       <c r="K34" s="22">
         <f t="shared" si="1"/>
-        <v>-115387.98999999999</v>
+        <v>0</v>
       </c>
       <c r="L34" s="22">
         <f t="shared" si="2"/>
-        <v>-119186.82999999996</v>
+        <v>0</v>
       </c>
       <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="68"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="12">
         <v>73</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="66"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="15">
         <f>VLOOKUP(C35,RA!B34:D63,3,0)</f>
         <v>326996.81</v>
@@ -60015,35 +60097,35 @@
       </c>
       <c r="H35" s="27">
         <f>RA!J34</f>
-        <v>10.670795755238901</v>
+        <v>11.7183185359016</v>
       </c>
       <c r="I35" s="20">
         <f>VLOOKUP(B35,RMS!B:D,3,FALSE)</f>
-        <v>389240.41</v>
+        <v>326996.81</v>
       </c>
       <c r="J35" s="21">
         <f>VLOOKUP(B35,RMS!B:E,4,FALSE)</f>
-        <v>474704.8</v>
+        <v>403478.18</v>
       </c>
       <c r="K35" s="22">
         <f t="shared" si="1"/>
-        <v>-62243.599999999977</v>
+        <v>0</v>
       </c>
       <c r="L35" s="22">
         <f t="shared" si="2"/>
-        <v>-71226.62</v>
+        <v>0</v>
       </c>
       <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" s="35" customFormat="1">
-      <c r="A36" s="68"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="12">
         <v>74</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="66"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="15">
         <f>VLOOKUP(C36,RA!B35:D64,3,0)</f>
         <v>0</v>
@@ -60058,34 +60140,34 @@
       </c>
       <c r="H36" s="27">
         <f>RA!J35</f>
-        <v>-8.6056198211651402</v>
+        <v>1.7490501049343099</v>
       </c>
       <c r="I36" s="20">
         <f>VLOOKUP(B36,RMS!B:D,3,FALSE)</f>
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="J36" s="21">
         <f>VLOOKUP(B36,RMS!B:E,4,FALSE)</f>
-        <v>3765</v>
+        <v>0</v>
       </c>
       <c r="K36" s="22">
         <f t="shared" si="1"/>
-        <v>-0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="L36" s="22">
         <f t="shared" si="2"/>
-        <v>-3765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="11.25" customHeight="1">
-      <c r="A37" s="68"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="12">
         <v>75</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="66"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="15">
         <f>VLOOKUP(C37,RA!B8:D64,3,0)</f>
         <v>43625.641300000003</v>
@@ -60100,7 +60182,7 @@
       </c>
       <c r="H37" s="27">
         <f>RA!J35</f>
-        <v>-8.6056198211651402</v>
+        <v>1.7490501049343099</v>
       </c>
       <c r="I37" s="20">
         <f>VLOOKUP(B37,RMS!B:D,3,FALSE)</f>
@@ -60121,25 +60203,25 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="68"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="12">
         <v>76</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="66"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="15">
         <f>VLOOKUP(C38,RA!B8:D65,3,0)</f>
-        <v>453321.39730000001</v>
+        <v>452612.33760000003</v>
       </c>
       <c r="F38" s="25">
         <f>VLOOKUP(C38,RA!B8:I69,8,0)</f>
-        <v>14844.456399999999</v>
+        <v>19015.396700000001</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" si="0"/>
-        <v>438476.94089999999</v>
+        <v>433596.94090000005</v>
       </c>
       <c r="H38" s="27">
         <f>RA!J36</f>
@@ -60147,7 +60229,7 @@
       </c>
       <c r="I38" s="20">
         <f>VLOOKUP(B38,RMS!B:D,3,FALSE)</f>
-        <v>448441.39680256398</v>
+        <v>452612.33697350399</v>
       </c>
       <c r="J38" s="21">
         <f>VLOOKUP(B38,RMS!B:E,4,FALSE)</f>
@@ -60155,23 +60237,23 @@
       </c>
       <c r="K38" s="22">
         <f t="shared" si="1"/>
-        <v>4880.0004974360345</v>
+        <v>6.2649603933095932E-4</v>
       </c>
       <c r="L38" s="22">
         <f t="shared" si="2"/>
-        <v>4879.9974914529594</v>
+        <v>-2.5085469824261963E-3</v>
       </c>
       <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="68"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="12">
         <v>77</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="66"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="15">
         <f>VLOOKUP(C39,RA!B9:D66,3,0)</f>
         <v>121441.09</v>
@@ -60190,31 +60272,31 @@
       </c>
       <c r="I39" s="20">
         <f>VLOOKUP(B39,RMS!B:D,3,FALSE)</f>
-        <v>218612.94</v>
+        <v>121441.09</v>
       </c>
       <c r="J39" s="21">
         <f>VLOOKUP(B39,RMS!B:E,4,FALSE)</f>
-        <v>271222.19</v>
+        <v>156562.41</v>
       </c>
       <c r="K39" s="22">
         <f t="shared" si="1"/>
-        <v>-97171.85</v>
+        <v>0</v>
       </c>
       <c r="L39" s="22">
         <f t="shared" si="2"/>
-        <v>-114659.78</v>
+        <v>0</v>
       </c>
       <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="68"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="12">
         <v>78</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="66"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="15">
         <f>VLOOKUP(C40,RA!B10:D67,3,0)</f>
         <v>59173.52</v>
@@ -60233,31 +60315,31 @@
       </c>
       <c r="I40" s="20">
         <f>VLOOKUP(B40,RMS!B:D,3,FALSE)</f>
-        <v>128763.3</v>
+        <v>59173.52</v>
       </c>
       <c r="J40" s="21">
         <f>VLOOKUP(B40,RMS!B:E,4,FALSE)</f>
-        <v>118043.99</v>
+        <v>54850.15</v>
       </c>
       <c r="K40" s="22">
         <f t="shared" si="1"/>
-        <v>-69589.78</v>
+        <v>0</v>
       </c>
       <c r="L40" s="22">
         <f t="shared" si="2"/>
-        <v>-63193.840000000011</v>
+        <v>0</v>
       </c>
       <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" s="36" customFormat="1">
-      <c r="A41" s="68"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="12">
         <v>9101</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="15">
         <f>VLOOKUP(C41,RA!B11:D68,3,0)</f>
         <v>0</v>
@@ -60292,14 +60374,14 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="68"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="12">
         <v>99</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="66"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="15">
         <f>VLOOKUP(C42,RA!B8:D68,3,0)</f>
         <v>8635.0465999999997</v>
@@ -60336,31 +60418,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -60377,6 +60434,31 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -60610,25 +60692,25 @@
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
       <c r="D7" s="53">
-        <v>24535752.021899998</v>
+        <v>24173903.9012</v>
       </c>
       <c r="E7" s="53">
         <v>15727880.1709</v>
       </c>
       <c r="F7" s="54">
-        <v>156.001646472971</v>
+        <v>153.70096693594499</v>
       </c>
       <c r="G7" s="53">
         <v>30997030.868099999</v>
       </c>
       <c r="H7" s="54">
-        <v>-20.844831473357299</v>
+        <v>-22.0121952839099</v>
       </c>
       <c r="I7" s="53">
-        <v>-703064.37899999996</v>
+        <v>1505120.2061000001</v>
       </c>
       <c r="J7" s="54">
-        <v>-2.8654690444069599</v>
+        <v>6.2262190345899597</v>
       </c>
       <c r="K7" s="53">
         <v>723852.26549999998</v>
@@ -60637,13 +60719,13 @@
         <v>2.3352309728637199</v>
       </c>
       <c r="M7" s="54">
-        <v>-1.97128158950274</v>
+        <v>1.0793196040635999</v>
       </c>
       <c r="N7" s="53">
-        <v>559281557.27690005</v>
+        <v>558807250.40030003</v>
       </c>
       <c r="O7" s="53">
-        <v>4006774293.0646</v>
+        <v>4006299986.1880002</v>
       </c>
       <c r="P7" s="53">
         <v>921139</v>
@@ -60655,43 +60737,43 @@
         <v>6.1961461573402499</v>
       </c>
       <c r="S7" s="53">
-        <v>26.636318755258401</v>
+        <v>26.243491917289401</v>
       </c>
       <c r="T7" s="53">
-        <v>22.0575053093519</v>
+        <v>21.927854013746899</v>
       </c>
       <c r="U7" s="55">
-        <v>17.190113573793202</v>
+        <v>16.4446024071182</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12" thickBot="1">
       <c r="A8" s="81">
         <v>42549</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="56">
-        <v>1418589.5696</v>
+        <v>1357859.3962000001</v>
       </c>
       <c r="E8" s="56">
         <v>515628.55239999999</v>
       </c>
       <c r="F8" s="57">
-        <v>275.11850594718902</v>
+        <v>263.34061406798099</v>
       </c>
       <c r="G8" s="56">
         <v>1051300.851</v>
       </c>
       <c r="H8" s="57">
-        <v>34.936594814950801</v>
+        <v>29.1599255254479</v>
       </c>
       <c r="I8" s="56">
-        <v>-127220.4679</v>
+        <v>230012.42869999999</v>
       </c>
       <c r="J8" s="57">
-        <v>-8.96809553843487</v>
+        <v>16.9393406521835</v>
       </c>
       <c r="K8" s="56">
         <v>141482.274</v>
@@ -60700,13 +60782,13 @@
         <v>13.4578293040876</v>
       </c>
       <c r="M8" s="57">
-        <v>-1.8991972231093801</v>
+        <v>0.62573319043486697</v>
       </c>
       <c r="N8" s="56">
-        <v>17216628.305599999</v>
+        <v>17122544.155099999</v>
       </c>
       <c r="O8" s="56">
-        <v>142673341.07539999</v>
+        <v>142579256.9249</v>
       </c>
       <c r="P8" s="56">
         <v>30198</v>
@@ -60718,41 +60800,41 @@
         <v>15.0356176907546</v>
       </c>
       <c r="S8" s="56">
-        <v>46.9762755679184</v>
+        <v>44.965209490694697</v>
       </c>
       <c r="T8" s="56">
-        <v>36.874233149213403</v>
+        <v>35.6036538531866</v>
       </c>
       <c r="U8" s="58">
-        <v>21.5045622424866</v>
+        <v>20.819553035654199</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="12" thickBot="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="56">
-        <v>97164.4421</v>
+        <v>95134.249400000001</v>
       </c>
       <c r="E9" s="56">
         <v>66671.972500000003</v>
       </c>
       <c r="F9" s="57">
-        <v>145.735064460557</v>
+        <v>142.69001775821201</v>
       </c>
       <c r="G9" s="56">
         <v>218522.89379999999</v>
       </c>
       <c r="H9" s="57">
-        <v>-55.535806610300298</v>
+        <v>-56.464859243960802</v>
       </c>
       <c r="I9" s="56">
-        <v>5147.6921000000002</v>
+        <v>21898.849399999999</v>
       </c>
       <c r="J9" s="57">
-        <v>5.2979176216563699</v>
+        <v>23.018891238553302</v>
       </c>
       <c r="K9" s="56">
         <v>26498.614399999999</v>
@@ -60761,13 +60843,13 @@
         <v>12.1262417585649</v>
       </c>
       <c r="M9" s="57">
-        <v>-0.80573731055160402</v>
+        <v>-0.17358511394467499</v>
       </c>
       <c r="N9" s="56">
-        <v>2611034.5251000002</v>
+        <v>2607830.9830999998</v>
       </c>
       <c r="O9" s="56">
-        <v>20212935.727400001</v>
+        <v>20209732.185400002</v>
       </c>
       <c r="P9" s="56">
         <v>4738</v>
@@ -60779,41 +60861,41 @@
         <v>11.7189342136289</v>
       </c>
       <c r="S9" s="56">
-        <v>20.507480392570699</v>
+        <v>20.078988898269301</v>
       </c>
       <c r="T9" s="56">
-        <v>19.400946026880501</v>
+        <v>19.124277953312902</v>
       </c>
       <c r="U9" s="58">
-        <v>5.3957597155188202</v>
+        <v>4.7547759988985501</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="12" thickBot="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="56">
-        <v>215096.49900000001</v>
+        <v>207120.59880000001</v>
       </c>
       <c r="E10" s="56">
         <v>117307.1893</v>
       </c>
       <c r="F10" s="57">
-        <v>183.36173621031401</v>
+        <v>176.56257901663</v>
       </c>
       <c r="G10" s="56">
         <v>218106.24129999999</v>
       </c>
       <c r="H10" s="57">
-        <v>-1.37994322494428</v>
+        <v>-5.0368308740369798</v>
       </c>
       <c r="I10" s="56">
-        <v>4201.2390999999998</v>
+        <v>51117.618900000001</v>
       </c>
       <c r="J10" s="57">
-        <v>1.9531880432884201</v>
+        <v>24.680123172760901</v>
       </c>
       <c r="K10" s="56">
         <v>40648.7143</v>
@@ -60822,13 +60904,13 @@
         <v>18.637116506945201</v>
       </c>
       <c r="M10" s="57">
-        <v>-0.8966452156643</v>
+        <v>0.25754577433215398</v>
       </c>
       <c r="N10" s="56">
-        <v>5081216.7235000003</v>
+        <v>5067995.3057000004</v>
       </c>
       <c r="O10" s="56">
-        <v>35908887.0964</v>
+        <v>35895665.678599998</v>
       </c>
       <c r="P10" s="56">
         <v>93413</v>
@@ -60840,41 +60922,41 @@
         <v>3.9365785813629999</v>
       </c>
       <c r="S10" s="56">
-        <v>2.30263987881772</v>
+        <v>2.2172566859002498</v>
       </c>
       <c r="T10" s="56">
-        <v>1.7731618247566101</v>
+        <v>1.71479723393602</v>
       </c>
       <c r="U10" s="58">
-        <v>22.994392607018298</v>
+        <v>22.661311843568502</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="12" thickBot="1">
       <c r="A11" s="82"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="56">
-        <v>93488.018899999995</v>
+        <v>89838.060500000007</v>
       </c>
       <c r="E11" s="56">
         <v>60364.679600000003</v>
       </c>
       <c r="F11" s="57">
-        <v>154.872053524492</v>
+        <v>148.82554019221499</v>
       </c>
       <c r="G11" s="56">
         <v>98442.037899999996</v>
       </c>
       <c r="H11" s="57">
-        <v>-5.0324222310720899</v>
+        <v>-8.7401455552354008</v>
       </c>
       <c r="I11" s="56">
-        <v>-3036.7206999999999</v>
+        <v>18479.090899999999</v>
       </c>
       <c r="J11" s="57">
-        <v>-3.2482458562398699</v>
+        <v>20.569334196612601</v>
       </c>
       <c r="K11" s="56">
         <v>11440.6034</v>
@@ -60883,13 +60965,13 @@
         <v>11.621664528747001</v>
       </c>
       <c r="M11" s="57">
-        <v>-1.2654336134053901</v>
+        <v>0.615219954220247</v>
       </c>
       <c r="N11" s="56">
-        <v>1970028.9916000001</v>
+        <v>1964201.1686</v>
       </c>
       <c r="O11" s="56">
-        <v>12130299.713300001</v>
+        <v>12124471.8903</v>
       </c>
       <c r="P11" s="56">
         <v>3409</v>
@@ -60901,41 +60983,41 @@
         <v>15.559322033898299</v>
       </c>
       <c r="S11" s="56">
-        <v>27.423883514227001</v>
+        <v>26.35320049868</v>
       </c>
       <c r="T11" s="56">
-        <v>26.258350610169501</v>
+        <v>25.5200914237288</v>
       </c>
       <c r="U11" s="58">
-        <v>4.2500651063985604</v>
+        <v>3.1613202919807901</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12" thickBot="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="56">
-        <v>817964.98899999994</v>
+        <v>757617.10069999995</v>
       </c>
       <c r="E12" s="56">
         <v>231274.34599999999</v>
       </c>
       <c r="F12" s="57">
-        <v>353.67735468593702</v>
+        <v>327.58371769430897</v>
       </c>
       <c r="G12" s="56">
         <v>635478.61300000001</v>
       </c>
       <c r="H12" s="57">
-        <v>28.716367831563801</v>
+        <v>19.219921048704101</v>
       </c>
       <c r="I12" s="56">
-        <v>-129558.5775</v>
+        <v>225428.62419999999</v>
       </c>
       <c r="J12" s="57">
-        <v>-15.839134833679299</v>
+        <v>29.754954579525101</v>
       </c>
       <c r="K12" s="56">
         <v>-3199.8620000000001</v>
@@ -60944,13 +61026,13 @@
         <v>-0.50353574999069295</v>
       </c>
       <c r="M12" s="57">
-        <v>39.4888015483168</v>
+        <v>-71.449483196462793</v>
       </c>
       <c r="N12" s="56">
-        <v>8885542.3483000007</v>
+        <v>8810132.7765999995</v>
       </c>
       <c r="O12" s="56">
-        <v>43793433.9507</v>
+        <v>43718024.379000001</v>
       </c>
       <c r="P12" s="56">
         <v>6199</v>
@@ -60962,41 +61044,41 @@
         <v>130.61755952381</v>
       </c>
       <c r="S12" s="56">
-        <v>131.951119374093</v>
+        <v>122.216018825617</v>
       </c>
       <c r="T12" s="56">
-        <v>120.754192745536</v>
+        <v>115.150887909226</v>
       </c>
       <c r="U12" s="58">
-        <v>8.4856624799162592</v>
+        <v>5.7808550665291101</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="12" thickBot="1">
       <c r="A13" s="82"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="56">
-        <v>477967.34960000002</v>
+        <v>453775.05200000003</v>
       </c>
       <c r="E13" s="56">
         <v>241944.79800000001</v>
       </c>
       <c r="F13" s="57">
-        <v>197.55223238980301</v>
+        <v>187.55313433108</v>
       </c>
       <c r="G13" s="56">
         <v>647962.04610000004</v>
       </c>
       <c r="H13" s="57">
-        <v>-26.2352860824451</v>
+        <v>-29.968884021647</v>
       </c>
       <c r="I13" s="56">
-        <v>-28802.5062</v>
+        <v>113504.2062</v>
       </c>
       <c r="J13" s="57">
-        <v>-6.02604052852233</v>
+        <v>25.013320080011798</v>
       </c>
       <c r="K13" s="56">
         <v>82916.333400000003</v>
@@ -61005,13 +61087,13 @@
         <v>12.7964799634582</v>
       </c>
       <c r="M13" s="57">
-        <v>-1.34736830512093</v>
+        <v>0.36890045116249698</v>
       </c>
       <c r="N13" s="56">
-        <v>7458979.7017000001</v>
+        <v>7420268.9105000002</v>
       </c>
       <c r="O13" s="56">
-        <v>62030926.725900002</v>
+        <v>61992215.934699997</v>
       </c>
       <c r="P13" s="56">
         <v>12867</v>
@@ -61023,41 +61105,41 @@
         <v>16.065307595165098</v>
       </c>
       <c r="S13" s="56">
-        <v>37.146759120230101</v>
+        <v>35.2665774461802</v>
       </c>
       <c r="T13" s="56">
-        <v>32.438149188165298</v>
+        <v>31.128525013530599</v>
       </c>
       <c r="U13" s="58">
-        <v>12.6756951173716</v>
+        <v>11.733637716800301</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12" thickBot="1">
       <c r="A14" s="82"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="56">
-        <v>104163.39780000001</v>
+        <v>103779.9722</v>
       </c>
       <c r="E14" s="56">
         <v>161678.17319999999</v>
       </c>
       <c r="F14" s="57">
-        <v>64.426382200117501</v>
+        <v>64.189228605163393</v>
       </c>
       <c r="G14" s="56">
         <v>270707.00709999999</v>
       </c>
       <c r="H14" s="57">
-        <v>-61.521720876060797</v>
+        <v>-61.663359470535099</v>
       </c>
       <c r="I14" s="56">
-        <v>20230.104800000001</v>
+        <v>22485.549200000001</v>
       </c>
       <c r="J14" s="57">
-        <v>19.421510076738301</v>
+        <v>21.666559282427698</v>
       </c>
       <c r="K14" s="56">
         <v>43468.9611</v>
@@ -61066,13 +61148,13 @@
         <v>16.057567761422</v>
       </c>
       <c r="M14" s="57">
-        <v>-0.53460804472734502</v>
+        <v>-0.48272172531862001</v>
       </c>
       <c r="N14" s="56">
-        <v>3752689.3256999999</v>
+        <v>3752022.2296000002</v>
       </c>
       <c r="O14" s="56">
-        <v>28308102.034299999</v>
+        <v>28307434.938200001</v>
       </c>
       <c r="P14" s="56">
         <v>2185</v>
@@ -61084,41 +61166,41 @@
         <v>4.2461832061068803</v>
       </c>
       <c r="S14" s="56">
-        <v>47.672035606407299</v>
+        <v>47.496554782608698</v>
       </c>
       <c r="T14" s="56">
-        <v>47.032383396946599</v>
+        <v>46.897044417938901</v>
       </c>
       <c r="U14" s="58">
-        <v>1.3417765810168001</v>
+        <v>1.26221863335923</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12" thickBot="1">
       <c r="A15" s="82"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="56">
-        <v>139789.36919999999</v>
+        <v>134359.9976</v>
       </c>
       <c r="E15" s="56">
         <v>99489.679699999993</v>
       </c>
       <c r="F15" s="57">
-        <v>140.50640189165301</v>
+        <v>135.04918098555299</v>
       </c>
       <c r="G15" s="56">
         <v>211375.74540000001</v>
       </c>
       <c r="H15" s="57">
-        <v>-33.866882912480101</v>
+        <v>-36.435470708457203</v>
       </c>
       <c r="I15" s="56">
-        <v>-14487.772999999999</v>
+        <v>17448.955399999999</v>
       </c>
       <c r="J15" s="57">
-        <v>-10.364001985925</v>
+        <v>12.986719047098299</v>
       </c>
       <c r="K15" s="56">
         <v>6554.2212</v>
@@ -61127,13 +61209,13 @@
         <v>3.1007442162283199</v>
       </c>
       <c r="M15" s="57">
-        <v>-3.21044919875454</v>
+        <v>1.66224695010294</v>
       </c>
       <c r="N15" s="56">
-        <v>3307344.3917</v>
+        <v>3298524.4342</v>
       </c>
       <c r="O15" s="56">
-        <v>23781765.659499999</v>
+        <v>23772945.702</v>
       </c>
       <c r="P15" s="56">
         <v>5566</v>
@@ -61145,41 +61227,41 @@
         <v>13.963963963964</v>
       </c>
       <c r="S15" s="56">
-        <v>25.114870499460999</v>
+        <v>24.139417463169199</v>
       </c>
       <c r="T15" s="56">
-        <v>23.7867013513514</v>
+        <v>23.092478194103201</v>
       </c>
       <c r="U15" s="58">
-        <v>5.2883774500774896</v>
+        <v>4.3370527506035197</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="12" thickBot="1">
       <c r="A16" s="82"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="56">
-        <v>1247394.6529000001</v>
+        <v>1227278.5906</v>
       </c>
       <c r="E16" s="56">
         <v>828375.04029999999</v>
       </c>
       <c r="F16" s="57">
-        <v>150.58332183068299</v>
+        <v>148.15494563374801</v>
       </c>
       <c r="G16" s="56">
         <v>1566627.057</v>
       </c>
       <c r="H16" s="57">
-        <v>-20.377051620141899</v>
+        <v>-21.661088060730499</v>
       </c>
       <c r="I16" s="56">
-        <v>-68537.348100000003</v>
+        <v>62175.3796</v>
       </c>
       <c r="J16" s="57">
-        <v>-5.4944397862105001</v>
+        <v>5.0661178379721701</v>
       </c>
       <c r="K16" s="56">
         <v>18107.734199999999</v>
@@ -61188,13 +61270,13 @@
         <v>1.15584204416048</v>
       </c>
       <c r="M16" s="57">
-        <v>-4.7849764825905199</v>
+        <v>2.4336366390887298</v>
       </c>
       <c r="N16" s="56">
-        <v>31506924.7588</v>
+        <v>31482981.984000001</v>
       </c>
       <c r="O16" s="56">
-        <v>203901078.66150001</v>
+        <v>203877135.8867</v>
       </c>
       <c r="P16" s="56">
         <v>50331</v>
@@ -61206,41 +61288,41 @@
         <v>13.3453439927936</v>
       </c>
       <c r="S16" s="56">
-        <v>24.783824142178801</v>
+        <v>24.384148747292901</v>
       </c>
       <c r="T16" s="56">
-        <v>20.480009881770101</v>
+        <v>20.3938323679766</v>
       </c>
       <c r="U16" s="58">
-        <v>17.365416393042398</v>
+        <v>16.364386637689499</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="12" thickBot="1">
       <c r="A17" s="82"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="56">
-        <v>773943.72510000004</v>
+        <v>765665.18889999995</v>
       </c>
       <c r="E17" s="56">
         <v>520686.46389999997</v>
       </c>
       <c r="F17" s="57">
-        <v>148.639109859526</v>
+        <v>147.04918256662199</v>
       </c>
       <c r="G17" s="56">
         <v>833835.94810000004</v>
       </c>
       <c r="H17" s="57">
-        <v>-7.1827345818409398</v>
+        <v>-8.1755601153123205</v>
       </c>
       <c r="I17" s="56">
-        <v>2065.6215999999999</v>
+        <v>50762.615400000002</v>
       </c>
       <c r="J17" s="57">
-        <v>0.26689558077793102</v>
+        <v>6.6298711415793301</v>
       </c>
       <c r="K17" s="56">
         <v>52552.765200000002</v>
@@ -61249,13 +61331,13 @@
         <v>6.3025305301058401</v>
       </c>
       <c r="M17" s="57">
-        <v>-0.960694330885561</v>
+        <v>-3.4063855501937003E-2</v>
       </c>
       <c r="N17" s="56">
-        <v>22711634.794599999</v>
+        <v>22706169.483800001</v>
       </c>
       <c r="O17" s="56">
-        <v>221085785.43149999</v>
+        <v>221080320.1207</v>
       </c>
       <c r="P17" s="56">
         <v>14036</v>
@@ -61267,41 +61349,41 @@
         <v>14.7575831902543</v>
       </c>
       <c r="S17" s="56">
-        <v>55.139906319464203</v>
+        <v>54.550098952693098</v>
       </c>
       <c r="T17" s="56">
-        <v>46.298996329000097</v>
+        <v>46.529004128852897</v>
       </c>
       <c r="U17" s="58">
-        <v>16.0335963199548</v>
+        <v>14.704088494497899</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A18" s="82"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="56">
-        <v>2187689.0326999999</v>
+        <v>2181088.3709</v>
       </c>
       <c r="E18" s="56">
         <v>1404174.3772</v>
       </c>
       <c r="F18" s="57">
-        <v>155.79895689753101</v>
+        <v>155.32888267404601</v>
       </c>
       <c r="G18" s="56">
         <v>1896567.8999000001</v>
       </c>
       <c r="H18" s="57">
-        <v>15.3498924459994</v>
+        <v>15.0018605194679</v>
       </c>
       <c r="I18" s="56">
-        <v>167947.45759999999</v>
+        <v>206776.95139999999</v>
       </c>
       <c r="J18" s="57">
-        <v>7.6769346598004704</v>
+        <v>9.4804481174999804</v>
       </c>
       <c r="K18" s="56">
         <v>275687.91580000002</v>
@@ -61310,13 +61392,13 @@
         <v>14.5361479446392</v>
       </c>
       <c r="M18" s="57">
-        <v>-0.39080587876822698</v>
+        <v>-0.24996004703373401</v>
       </c>
       <c r="N18" s="56">
-        <v>45017587.766900003</v>
+        <v>45006260.694499999</v>
       </c>
       <c r="O18" s="56">
-        <v>423812096.73989999</v>
+        <v>423800769.66750002</v>
       </c>
       <c r="P18" s="56">
         <v>72147</v>
@@ -61328,41 +61410,41 @@
         <v>4.3551839851886198</v>
       </c>
       <c r="S18" s="56">
-        <v>30.322661132133</v>
+        <v>30.231172063980502</v>
       </c>
       <c r="T18" s="56">
-        <v>23.0448797384865</v>
+        <v>22.976515780490601</v>
       </c>
       <c r="U18" s="58">
-        <v>24.001130250188599</v>
+        <v>23.997270989481599</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A19" s="82"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="56">
-        <v>450435.05300000001</v>
+        <v>445997.62829999998</v>
       </c>
       <c r="E19" s="56">
         <v>520673.70500000002</v>
       </c>
       <c r="F19" s="57">
-        <v>86.510044328049901</v>
+        <v>85.657797583613302</v>
       </c>
       <c r="G19" s="56">
         <v>1506677.3395</v>
       </c>
       <c r="H19" s="57">
-        <v>-70.1040799386099</v>
+        <v>-70.398597190822102</v>
       </c>
       <c r="I19" s="56">
-        <v>-6330.4543999999996</v>
+        <v>19799.890899999999</v>
       </c>
       <c r="J19" s="57">
-        <v>-1.40540891696544</v>
+        <v>4.4394610293043097</v>
       </c>
       <c r="K19" s="56">
         <v>-287806.98469999997</v>
@@ -61371,13 +61453,13 @@
         <v>-19.1020981835109</v>
       </c>
       <c r="M19" s="57">
-        <v>-0.97800451435673597</v>
+        <v>-1.06879572752773</v>
       </c>
       <c r="N19" s="56">
-        <v>14889173.889799999</v>
+        <v>14883919.965500001</v>
       </c>
       <c r="O19" s="56">
-        <v>125557451.04970001</v>
+        <v>125552197.12540001</v>
       </c>
       <c r="P19" s="56">
         <v>8815</v>
@@ -61389,41 +61471,41 @@
         <v>10.5190571715145</v>
       </c>
       <c r="S19" s="56">
-        <v>51.0987014180374</v>
+        <v>50.595306670448103</v>
       </c>
       <c r="T19" s="56">
-        <v>56.914056043129399</v>
+        <v>56.811686484453404</v>
       </c>
       <c r="U19" s="58">
-        <v>-11.380630943077501</v>
+        <v>-12.2864752149751</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="12" thickBot="1">
       <c r="A20" s="82"/>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="56">
-        <v>1528951.6850999999</v>
+        <v>1517801.4556</v>
       </c>
       <c r="E20" s="56">
         <v>923418.17229999998</v>
       </c>
       <c r="F20" s="57">
-        <v>165.57522160212301</v>
+        <v>164.36772646779801</v>
       </c>
       <c r="G20" s="56">
         <v>1634856.6309</v>
       </c>
       <c r="H20" s="57">
-        <v>-6.4779347496482602</v>
+        <v>-7.1599657785013404</v>
       </c>
       <c r="I20" s="56">
-        <v>3174.1983</v>
+        <v>85984.008799999996</v>
       </c>
       <c r="J20" s="57">
-        <v>0.20760618735917699</v>
+        <v>5.66503665435014</v>
       </c>
       <c r="K20" s="56">
         <v>46816.527699999999</v>
@@ -61432,13 +61514,13 @@
         <v>2.8636472957403698</v>
       </c>
       <c r="M20" s="57">
-        <v>-0.93219919426019304</v>
+        <v>0.83661653318214801</v>
       </c>
       <c r="N20" s="56">
-        <v>30989033.988600001</v>
+        <v>30975654.464000002</v>
       </c>
       <c r="O20" s="56">
-        <v>227711921.71669999</v>
+        <v>227698542.19209999</v>
       </c>
       <c r="P20" s="56">
         <v>43085</v>
@@ -61450,41 +61532,41 @@
         <v>2.5101118248869798</v>
       </c>
       <c r="S20" s="56">
-        <v>35.4868674735987</v>
+        <v>35.228071384472599</v>
       </c>
       <c r="T20" s="56">
-        <v>25.564583152510099</v>
+        <v>25.5115425838687</v>
       </c>
       <c r="U20" s="58">
-        <v>27.960440093706499</v>
+        <v>27.581779015261802</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A21" s="82"/>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="56">
-        <v>321247.4901</v>
+        <v>319742.57929999998</v>
       </c>
       <c r="E21" s="56">
         <v>296031.10239999997</v>
       </c>
       <c r="F21" s="57">
-        <v>108.518154847773</v>
+        <v>108.009792453484</v>
       </c>
       <c r="G21" s="56">
         <v>399094.72129999998</v>
       </c>
       <c r="H21" s="57">
-        <v>-19.505953610817699</v>
+        <v>-19.883034719557401</v>
       </c>
       <c r="I21" s="56">
-        <v>27592.024600000001</v>
+        <v>38420.813800000004</v>
       </c>
       <c r="J21" s="57">
-        <v>8.58902417927405</v>
+        <v>12.01617059702</v>
       </c>
       <c r="K21" s="56">
         <v>37772.668799999999</v>
@@ -61493,13 +61575,13 @@
         <v>9.4645874234969494</v>
       </c>
       <c r="M21" s="57">
-        <v>-0.269524090392046</v>
+        <v>1.715909996807E-2</v>
       </c>
       <c r="N21" s="56">
-        <v>8792153.8331000004</v>
+        <v>8789878.6334000006</v>
       </c>
       <c r="O21" s="56">
-        <v>76154845.808699995</v>
+        <v>76152570.608999997</v>
       </c>
       <c r="P21" s="56">
         <v>27764</v>
@@ -61511,41 +61593,41 @@
         <v>4.46233727142749</v>
       </c>
       <c r="S21" s="56">
-        <v>11.5706486853479</v>
+        <v>11.5164450115257</v>
       </c>
       <c r="T21" s="56">
-        <v>11.378179479268599</v>
+        <v>11.349197279705001</v>
       </c>
       <c r="U21" s="58">
-        <v>1.6634262374856399</v>
+        <v>1.4522513818571201</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A22" s="82"/>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="56">
-        <v>1175230.5282999999</v>
+        <v>1171032.1732000001</v>
       </c>
       <c r="E22" s="56">
         <v>1551904.2464999999</v>
       </c>
       <c r="F22" s="57">
-        <v>75.728288710498106</v>
+        <v>75.457759448820497</v>
       </c>
       <c r="G22" s="56">
         <v>1747778.0870000001</v>
       </c>
       <c r="H22" s="57">
-        <v>-32.7585957827608</v>
+        <v>-32.998806775862697</v>
       </c>
       <c r="I22" s="56">
-        <v>6692.6562999999996</v>
+        <v>31986.458999999999</v>
       </c>
       <c r="J22" s="57">
-        <v>0.56947604226049997</v>
+        <v>2.7314756786393599</v>
       </c>
       <c r="K22" s="56">
         <v>204991.2745</v>
@@ -61554,13 +61636,13 @@
         <v>11.7286786019763</v>
       </c>
       <c r="M22" s="57">
-        <v>-0.96735150646619406</v>
+        <v>-0.84396185116649902</v>
       </c>
       <c r="N22" s="56">
-        <v>44600368.194799997</v>
+        <v>44593026.815099999</v>
       </c>
       <c r="O22" s="56">
-        <v>262769124.86039999</v>
+        <v>262761783.48069999</v>
       </c>
       <c r="P22" s="56">
         <v>72505</v>
@@ -61572,41 +61654,41 @@
         <v>3.6303866218823799</v>
       </c>
       <c r="S22" s="56">
-        <v>16.208958393214299</v>
+        <v>16.151054040411001</v>
       </c>
       <c r="T22" s="56">
-        <v>18.112057730293699</v>
+        <v>18.067134917458699</v>
       </c>
       <c r="U22" s="58">
-        <v>-11.741034130090499</v>
+        <v>-11.863503597062801</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="12" thickBot="1">
       <c r="A23" s="82"/>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="70"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="56">
-        <v>5018315.1666999999</v>
+        <v>4886044.1536999997</v>
       </c>
       <c r="E23" s="56">
         <v>2243747.8462</v>
       </c>
       <c r="F23" s="57">
-        <v>223.657715157209</v>
+        <v>217.762622568083</v>
       </c>
       <c r="G23" s="56">
         <v>4935718.8811999997</v>
       </c>
       <c r="H23" s="57">
-        <v>1.6734398268630299</v>
+        <v>-1.00643348407079</v>
       </c>
       <c r="I23" s="56">
-        <v>-825536.82449999999</v>
+        <v>-47013.747499999998</v>
       </c>
       <c r="J23" s="57">
-        <v>-16.450477841208698</v>
+        <v>-0.96220472065113105</v>
       </c>
       <c r="K23" s="56">
         <v>189986.18160000001</v>
@@ -61615,13 +61697,13 @@
         <v>3.84920993623951</v>
       </c>
       <c r="M23" s="57">
-        <v>-5.34524667819315</v>
+        <v>-1.24745877360167</v>
       </c>
       <c r="N23" s="56">
-        <v>94386342.423500001</v>
+        <v>94235476.731000006</v>
       </c>
       <c r="O23" s="56">
-        <v>586293411.71990001</v>
+        <v>586142546.02740002</v>
       </c>
       <c r="P23" s="56">
         <v>90505</v>
@@ -61633,41 +61715,41 @@
         <v>14.643105959845499</v>
       </c>
       <c r="S23" s="56">
-        <v>55.447932895420102</v>
+        <v>53.9864554853323</v>
       </c>
       <c r="T23" s="56">
-        <v>38.556728680727097</v>
+        <v>38.321189007536901</v>
       </c>
       <c r="U23" s="58">
-        <v>30.463181101000501</v>
+        <v>29.0170309144514</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
       <c r="A24" s="82"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="56">
-        <v>273789.47690000001</v>
+        <v>273276.9804</v>
       </c>
       <c r="E24" s="56">
         <v>214779.8284</v>
       </c>
       <c r="F24" s="57">
-        <v>127.47448349297601</v>
+        <v>127.23586867341</v>
       </c>
       <c r="G24" s="56">
         <v>279262.41379999998</v>
       </c>
       <c r="H24" s="57">
-        <v>-1.95978285281153</v>
+        <v>-2.1433007466184</v>
       </c>
       <c r="I24" s="56">
-        <v>35378.910400000001</v>
+        <v>38503.044800000003</v>
       </c>
       <c r="J24" s="57">
-        <v>12.92193944069</v>
+        <v>14.0893846029923</v>
       </c>
       <c r="K24" s="56">
         <v>38409.306199999999</v>
@@ -61676,13 +61758,13 @@
         <v>13.753840224093899</v>
       </c>
       <c r="M24" s="57">
-        <v>-7.8897436580096E-2</v>
+        <v>2.4405179180249999E-3</v>
       </c>
       <c r="N24" s="56">
-        <v>7659857.9587000003</v>
+        <v>7658835.4024</v>
       </c>
       <c r="O24" s="56">
-        <v>54665802.458099999</v>
+        <v>54664779.901799999</v>
       </c>
       <c r="P24" s="56">
         <v>26121</v>
@@ -61694,41 +61776,41 @@
         <v>2.3630378556313199</v>
       </c>
       <c r="S24" s="56">
-        <v>10.4815848129857</v>
+        <v>10.461964718042999</v>
       </c>
       <c r="T24" s="56">
-        <v>10.7011738498315</v>
+        <v>10.6811856140763</v>
       </c>
       <c r="U24" s="58">
-        <v>-2.0949984259414798</v>
+        <v>-2.09540848149976</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="82"/>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="56">
-        <v>235575.93100000001</v>
+        <v>235101.14230000001</v>
       </c>
       <c r="E25" s="56">
         <v>229489.8498</v>
       </c>
       <c r="F25" s="57">
-        <v>102.652004524516</v>
+        <v>102.44511576651</v>
       </c>
       <c r="G25" s="56">
         <v>267975.54800000001</v>
       </c>
       <c r="H25" s="57">
-        <v>-12.090512452277901</v>
+        <v>-12.267688580302901</v>
       </c>
       <c r="I25" s="56">
-        <v>17537.5867</v>
+        <v>21264.1944</v>
       </c>
       <c r="J25" s="57">
-        <v>7.4445579501922898</v>
+        <v>9.0447005879988005</v>
       </c>
       <c r="K25" s="56">
         <v>15020.473599999999</v>
@@ -61737,13 +61819,13 @@
         <v>5.6051657369873196</v>
       </c>
       <c r="M25" s="57">
-        <v>0.16757881056426899</v>
+        <v>0.41568068799108998</v>
       </c>
       <c r="N25" s="56">
-        <v>7707880.0356000001</v>
+        <v>7707000.4961999999</v>
       </c>
       <c r="O25" s="56">
-        <v>67703972.415800005</v>
+        <v>67703092.876399994</v>
       </c>
       <c r="P25" s="56">
         <v>16181</v>
@@ -61755,41 +61837,41 @@
         <v>1.8633931381806701</v>
       </c>
       <c r="S25" s="56">
-        <v>14.558799270749599</v>
+        <v>14.5294569124282</v>
       </c>
       <c r="T25" s="56">
-        <v>17.5865292917847</v>
+        <v>17.561049235127498</v>
       </c>
       <c r="U25" s="58">
-        <v>-20.796564089719499</v>
+        <v>-20.865145483216001</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="12" thickBot="1">
       <c r="A26" s="82"/>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="56">
-        <v>695659.74060000002</v>
+        <v>693660.59129999997</v>
       </c>
       <c r="E26" s="56">
         <v>583024.27520000003</v>
       </c>
       <c r="F26" s="57">
-        <v>119.319172492665</v>
+        <v>118.976279514613</v>
       </c>
       <c r="G26" s="56">
         <v>993048.62970000005</v>
       </c>
       <c r="H26" s="57">
-        <v>-29.947062027550601</v>
+        <v>-30.148376368078299</v>
       </c>
       <c r="I26" s="56">
-        <v>108698.9494</v>
+        <v>123536.2515</v>
       </c>
       <c r="J26" s="57">
-        <v>15.6253040180603</v>
+        <v>17.809322462514199</v>
       </c>
       <c r="K26" s="56">
         <v>129255.1654</v>
@@ -61798,13 +61880,13 @@
         <v>13.0159955448554</v>
       </c>
       <c r="M26" s="57">
-        <v>-0.15903593435810201</v>
+        <v>-4.4245147822928002E-2</v>
       </c>
       <c r="N26" s="56">
-        <v>18166367.279300001</v>
+        <v>18162916.604499999</v>
       </c>
       <c r="O26" s="56">
-        <v>129653685.0316</v>
+        <v>129650234.3568</v>
       </c>
       <c r="P26" s="56">
         <v>44666</v>
@@ -61816,41 +61898,41 @@
         <v>0.56059616813381996</v>
       </c>
       <c r="S26" s="56">
-        <v>15.574704262750201</v>
+        <v>15.5299465208436</v>
       </c>
       <c r="T26" s="56">
-        <v>14.581792309251</v>
+        <v>14.549112805907599</v>
       </c>
       <c r="U26" s="58">
-        <v>6.37515767072356</v>
+        <v>6.3157571960696499</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="12" thickBot="1">
       <c r="A27" s="82"/>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="70"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="56">
-        <v>193486.48420000001</v>
+        <v>193117.55189999999</v>
       </c>
       <c r="E27" s="56">
         <v>197506.9075</v>
       </c>
       <c r="F27" s="57">
-        <v>97.964413826893605</v>
+        <v>97.777619195419803</v>
       </c>
       <c r="G27" s="56">
         <v>209017.26490000001</v>
       </c>
       <c r="H27" s="57">
-        <v>-7.4303817473788198</v>
+        <v>-7.6068897981259598</v>
       </c>
       <c r="I27" s="56">
-        <v>50630.1734</v>
+        <v>52837.565799999997</v>
       </c>
       <c r="J27" s="57">
-        <v>26.167292051089898</v>
+        <v>27.360312555826301</v>
       </c>
       <c r="K27" s="56">
         <v>59634.4329</v>
@@ -61859,13 +61941,13 @@
         <v>28.530864629068301</v>
       </c>
       <c r="M27" s="57">
-        <v>-0.150990947043952</v>
+        <v>-0.113975546835459</v>
       </c>
       <c r="N27" s="56">
-        <v>5299183.1643000003</v>
+        <v>5298430.5551000005</v>
       </c>
       <c r="O27" s="56">
-        <v>43727417.370300002</v>
+        <v>43726664.761100002</v>
       </c>
       <c r="P27" s="56">
         <v>25762</v>
@@ -61877,41 +61959,41 @@
         <v>-1.116953901662</v>
       </c>
       <c r="S27" s="56">
-        <v>7.5105381647387599</v>
+        <v>7.49621737054576</v>
       </c>
       <c r="T27" s="56">
-        <v>7.9702800905845796</v>
+        <v>7.9555533067209101</v>
       </c>
       <c r="U27" s="58">
-        <v>-6.1212913876699204</v>
+        <v>-6.1275695923650604</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="12" thickBot="1">
       <c r="A28" s="82"/>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="56">
-        <v>851336.33330000006</v>
+        <v>851333.75439999998</v>
       </c>
       <c r="E28" s="56">
         <v>789146.47779999999</v>
       </c>
       <c r="F28" s="57">
-        <v>107.880647921457</v>
+        <v>107.880321125346</v>
       </c>
       <c r="G28" s="56">
         <v>860071.71759999997</v>
       </c>
       <c r="H28" s="57">
-        <v>-1.01565766217446</v>
+        <v>-1.01595750926247</v>
       </c>
       <c r="I28" s="56">
-        <v>20886.3786</v>
+        <v>39662.44</v>
       </c>
       <c r="J28" s="57">
-        <v>2.4533639389075499</v>
+        <v>4.6588590896355502</v>
       </c>
       <c r="K28" s="56">
         <v>7038.5581000000002</v>
@@ -61920,13 +62002,13 @@
         <v>0.81836874250915403</v>
       </c>
       <c r="M28" s="57">
-        <v>1.9674229157815699</v>
+        <v>4.6350234574322799</v>
       </c>
       <c r="N28" s="56">
-        <v>25481294.8561</v>
+        <v>25481287.528099999</v>
       </c>
       <c r="O28" s="56">
-        <v>187031306.48910001</v>
+        <v>187031299.1611</v>
       </c>
       <c r="P28" s="56">
         <v>37309</v>
@@ -61938,41 +62020,41 @@
         <v>-0.81350525056493905</v>
       </c>
       <c r="S28" s="56">
-        <v>22.818524573159301</v>
+        <v>22.8184554504275</v>
       </c>
       <c r="T28" s="56">
-        <v>22.716583168948599</v>
+        <v>22.7164569134654</v>
       </c>
       <c r="U28" s="58">
-        <v>0.446748447227163</v>
+        <v>0.44700018011180198</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="12" thickBot="1">
       <c r="A29" s="82"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="56">
-        <v>547960.31090000004</v>
+        <v>547958.77639999997</v>
       </c>
       <c r="E29" s="56">
         <v>561474.71109999996</v>
       </c>
       <c r="F29" s="57">
-        <v>97.593052735443095</v>
+        <v>97.592779437292805</v>
       </c>
       <c r="G29" s="56">
         <v>658543.2733</v>
       </c>
       <c r="H29" s="57">
-        <v>-16.7920570877389</v>
+        <v>-16.7922901020391</v>
       </c>
       <c r="I29" s="56">
-        <v>89167.555699999997</v>
+        <v>95780.063200000004</v>
       </c>
       <c r="J29" s="57">
-        <v>16.272630321262898</v>
+        <v>17.4794286222149</v>
       </c>
       <c r="K29" s="56">
         <v>81242.712799999994</v>
@@ -61981,13 +62063,13 @@
         <v>12.3367310993684</v>
       </c>
       <c r="M29" s="57">
-        <v>9.7545276700804998E-2</v>
+        <v>0.17893728432958</v>
       </c>
       <c r="N29" s="56">
-        <v>16593734.8762</v>
+        <v>16593729.25</v>
       </c>
       <c r="O29" s="56">
-        <v>138619220.984</v>
+        <v>138619215.35780001</v>
       </c>
       <c r="P29" s="56">
         <v>95306</v>
@@ -61999,41 +62081,41 @@
         <v>2.1183126359438198</v>
       </c>
       <c r="S29" s="56">
-        <v>5.7494838824418197</v>
+        <v>5.7494677816716697</v>
       </c>
       <c r="T29" s="56">
-        <v>5.78290565633404</v>
+        <v>5.7828618146556803</v>
       </c>
       <c r="U29" s="58">
-        <v>-0.58130041888268003</v>
+        <v>-0.58081955151511599</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="12" thickBot="1">
       <c r="A30" s="82"/>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="56">
-        <v>1144177.0637999999</v>
+        <v>1141678.2472000001</v>
       </c>
       <c r="E30" s="56">
         <v>1110792.4236999999</v>
       </c>
       <c r="F30" s="57">
-        <v>103.00547963667201</v>
+        <v>102.780521620513</v>
       </c>
       <c r="G30" s="56">
         <v>1682142.2176000001</v>
       </c>
       <c r="H30" s="57">
-        <v>-31.980955484699901</v>
+        <v>-32.129505147971898</v>
       </c>
       <c r="I30" s="56">
-        <v>139176.15549999999</v>
+        <v>158397.90160000001</v>
       </c>
       <c r="J30" s="57">
-        <v>12.163865183398499</v>
+        <v>13.874128020611399</v>
       </c>
       <c r="K30" s="56">
         <v>133890.0159</v>
@@ -62042,13 +62124,13 @@
         <v>7.9594944172454003</v>
       </c>
       <c r="M30" s="57">
-        <v>3.9481208247433001E-2</v>
+        <v>0.18304490842920301</v>
       </c>
       <c r="N30" s="56">
-        <v>33833091.2786</v>
+        <v>33828633.335900001</v>
       </c>
       <c r="O30" s="56">
-        <v>215936366.4152</v>
+        <v>215931908.4725</v>
       </c>
       <c r="P30" s="56">
         <v>69695</v>
@@ -62060,41 +62142,41 @@
         <v>9.5661059581826802</v>
       </c>
       <c r="S30" s="56">
-        <v>16.4169174804505</v>
+        <v>16.381063881196599</v>
       </c>
       <c r="T30" s="56">
-        <v>16.669207000471602</v>
+        <v>16.6384079735891</v>
       </c>
       <c r="U30" s="58">
-        <v>-1.5367654757448801</v>
+        <v>-1.5709852196340801</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="12" thickBot="1">
       <c r="A31" s="82"/>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="56">
-        <v>1291745.2714</v>
+        <v>1290035.3384</v>
       </c>
       <c r="E31" s="56">
         <v>945220.18759999995</v>
       </c>
       <c r="F31" s="57">
-        <v>136.66077897467</v>
+        <v>136.479875834594</v>
       </c>
       <c r="G31" s="56">
         <v>2220206.1716999998</v>
       </c>
       <c r="H31" s="57">
-        <v>-41.818679370172298</v>
+        <v>-41.895696226615399</v>
       </c>
       <c r="I31" s="56">
-        <v>-19910.969700000001</v>
+        <v>-3810.0018</v>
       </c>
       <c r="J31" s="57">
-        <v>-1.54140062602439</v>
+        <v>-0.29534088614389897</v>
       </c>
       <c r="K31" s="56">
         <v>-124555.9399</v>
@@ -62103,13 +62185,13 @@
         <v>-5.6101069120363798</v>
       </c>
       <c r="M31" s="57">
-        <v>-0.84014435830209599</v>
+        <v>-0.96941131990125196</v>
       </c>
       <c r="N31" s="56">
-        <v>30091624.083099999</v>
+        <v>30089205.866099998</v>
       </c>
       <c r="O31" s="56">
-        <v>230203690.09940001</v>
+        <v>230201271.88240001</v>
       </c>
       <c r="P31" s="56">
         <v>35234</v>
@@ -62121,41 +62203,41 @@
         <v>10.409877162196</v>
       </c>
       <c r="S31" s="56">
-        <v>36.661896787194202</v>
+        <v>36.613366021456599</v>
       </c>
       <c r="T31" s="56">
-        <v>30.519541398220099</v>
+        <v>30.497346487214799</v>
       </c>
       <c r="U31" s="58">
-        <v>16.754057829107101</v>
+        <v>16.704335598801698</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="12" thickBot="1">
       <c r="A32" s="82"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="56">
-        <v>93318.530799999993</v>
+        <v>93195.043699999995</v>
       </c>
       <c r="E32" s="56">
         <v>117749.5031</v>
       </c>
       <c r="F32" s="57">
-        <v>79.251740638555603</v>
+        <v>79.146867924234996</v>
       </c>
       <c r="G32" s="56">
         <v>111835.43799999999</v>
       </c>
       <c r="H32" s="57">
-        <v>-16.5572805285566</v>
+        <v>-16.667699106252901</v>
       </c>
       <c r="I32" s="56">
-        <v>21281.659800000001</v>
+        <v>22025.1342</v>
       </c>
       <c r="J32" s="57">
-        <v>22.805395260251998</v>
+        <v>23.633375043956299</v>
       </c>
       <c r="K32" s="56">
         <v>26476.341499999999</v>
@@ -62164,13 +62246,13 @@
         <v>23.6743754694286</v>
       </c>
       <c r="M32" s="57">
-        <v>-0.196200887497995</v>
+        <v>-0.16812018004828999</v>
       </c>
       <c r="N32" s="56">
-        <v>3702632.7566</v>
+        <v>3702349.8365000002</v>
       </c>
       <c r="O32" s="56">
-        <v>22566801.889600001</v>
+        <v>22566518.969500002</v>
       </c>
       <c r="P32" s="56">
         <v>19003</v>
@@ -62182,21 +62264,21 @@
         <v>-2.05648902175033</v>
       </c>
       <c r="S32" s="56">
-        <v>4.91072624322475</v>
+        <v>4.9042279482186997</v>
       </c>
       <c r="T32" s="56">
-        <v>4.9416025718998</v>
+        <v>4.9333852231728699</v>
       </c>
       <c r="U32" s="58">
-        <v>-0.62875279837986298</v>
+        <v>-0.59453343649648605</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="12" thickBot="1">
       <c r="A33" s="82"/>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
       <c r="F33" s="59"/>
@@ -62226,30 +62308,30 @@
     </row>
     <row r="34" spans="1:21" ht="12" thickBot="1">
       <c r="A34" s="82"/>
-      <c r="B34" s="69" t="s">
+      <c r="B34" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="56">
-        <v>197980.09150000001</v>
+        <v>197975.80710000001</v>
       </c>
       <c r="E34" s="56">
         <v>130255.3518</v>
       </c>
       <c r="F34" s="57">
-        <v>151.99382502454699</v>
+        <v>151.99053579309401</v>
       </c>
       <c r="G34" s="56">
         <v>141140.8781</v>
       </c>
       <c r="H34" s="57">
-        <v>40.271262418906502</v>
+        <v>40.268226870270503</v>
       </c>
       <c r="I34" s="56">
-        <v>21126.051200000002</v>
+        <v>23199.435700000002</v>
       </c>
       <c r="J34" s="57">
-        <v>10.670795755238901</v>
+        <v>11.7183185359016</v>
       </c>
       <c r="K34" s="56">
         <v>15751.554700000001</v>
@@ -62258,13 +62340,13 @@
         <v>11.1601648735952</v>
       </c>
       <c r="M34" s="57">
-        <v>0.34120419237092797</v>
+        <v>0.47283465929874202</v>
       </c>
       <c r="N34" s="56">
-        <v>4413710.0067999996</v>
+        <v>4413699.3365000002</v>
       </c>
       <c r="O34" s="56">
-        <v>36056882.901900001</v>
+        <v>36056872.231600001</v>
       </c>
       <c r="P34" s="56">
         <v>10180</v>
@@ -62276,42 +62358,42 @@
         <v>0.26593125184675198</v>
       </c>
       <c r="S34" s="56">
-        <v>19.447946119842801</v>
+        <v>19.447525255402802</v>
       </c>
       <c r="T34" s="56">
-        <v>14.369231330641201</v>
+        <v>14.3686023638334</v>
       </c>
       <c r="U34" s="58">
-        <v>26.114401787753799</v>
+        <v>26.1160370014607</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A35" s="82"/>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="70"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="56">
-        <v>8356.2232000000004</v>
+        <v>8209.5647000000008</v>
       </c>
       <c r="E35" s="59"/>
       <c r="F35" s="59"/>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
       <c r="I35" s="56">
-        <v>-719.10479999999995</v>
+        <v>143.58940000000001</v>
       </c>
       <c r="J35" s="57">
-        <v>-8.6056198211651402</v>
+        <v>1.7490501049343099</v>
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
       <c r="M35" s="59"/>
       <c r="N35" s="56">
-        <v>189044.7328</v>
+        <v>188865.53349999999</v>
       </c>
       <c r="O35" s="56">
-        <v>411324.78269999998</v>
+        <v>411145.5834</v>
       </c>
       <c r="P35" s="56">
         <v>881</v>
@@ -62323,21 +62405,21 @@
         <v>-19.3223443223443</v>
       </c>
       <c r="S35" s="56">
-        <v>9.4849298524404109</v>
+        <v>9.3184616345062405</v>
       </c>
       <c r="T35" s="56">
-        <v>9.2595808608058601</v>
+        <v>9.2297815934065905</v>
       </c>
       <c r="U35" s="58">
-        <v>2.3758635555598602</v>
+        <v>0.95165966849366801</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A36" s="82"/>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="56">
         <v>163970.15</v>
       </c>
@@ -62391,10 +62473,10 @@
     </row>
     <row r="37" spans="1:21" ht="12" thickBot="1">
       <c r="A37" s="82"/>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="56">
         <v>1164379.54</v>
       </c>
@@ -62448,10 +62530,10 @@
     </row>
     <row r="38" spans="1:21" ht="12" thickBot="1">
       <c r="A38" s="82"/>
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="56">
         <v>593392.4</v>
       </c>
@@ -62505,10 +62587,10 @@
     </row>
     <row r="39" spans="1:21" ht="12" thickBot="1">
       <c r="A39" s="82"/>
-      <c r="B39" s="69" t="s">
+      <c r="B39" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="70"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="56">
         <v>326996.81</v>
       </c>
@@ -62562,10 +62644,10 @@
     </row>
     <row r="40" spans="1:21" ht="12" thickBot="1">
       <c r="A40" s="82"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="70"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
       <c r="F40" s="59"/>
@@ -62601,10 +62683,10 @@
     </row>
     <row r="41" spans="1:21" ht="12" customHeight="1" thickBot="1">
       <c r="A41" s="82"/>
-      <c r="B41" s="69" t="s">
+      <c r="B41" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="70"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="56">
         <v>43625.641300000003</v>
       </c>
@@ -62658,30 +62740,30 @@
     </row>
     <row r="42" spans="1:21" ht="12" thickBot="1">
       <c r="A42" s="82"/>
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="70"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="56">
-        <v>453321.39730000001</v>
+        <v>452612.33760000003</v>
       </c>
       <c r="E42" s="56">
         <v>1065070.3104000001</v>
       </c>
       <c r="F42" s="57">
-        <v>42.562579472312002</v>
+        <v>42.496005491883103</v>
       </c>
       <c r="G42" s="56">
         <v>1038922.1441</v>
       </c>
       <c r="H42" s="57">
-        <v>-56.366182021011397</v>
+        <v>-56.434431572147297</v>
       </c>
       <c r="I42" s="56">
-        <v>14844.456399999999</v>
+        <v>19015.396700000001</v>
       </c>
       <c r="J42" s="57">
-        <v>3.2745986596737202</v>
+        <v>4.2012546102543498</v>
       </c>
       <c r="K42" s="56">
         <v>-2136.3279000000002</v>
@@ -62690,13 +62772,13 @@
         <v>-0.20562925837437601</v>
       </c>
       <c r="M42" s="57">
-        <v>-7.9485851867590203</v>
+        <v>-9.9009728796782603</v>
       </c>
       <c r="N42" s="56">
-        <v>12946540.0438</v>
+        <v>12945454.6591</v>
       </c>
       <c r="O42" s="56">
-        <v>90037618.586300001</v>
+        <v>90036533.2016</v>
       </c>
       <c r="P42" s="56">
         <v>2056</v>
@@ -62708,21 +62790,21 @@
         <v>10.005350454788701</v>
       </c>
       <c r="S42" s="56">
-        <v>220.48706094357999</v>
+        <v>220.14218754863799</v>
       </c>
       <c r="T42" s="56">
-        <v>240.544431942215</v>
+        <v>240.343080952381</v>
       </c>
       <c r="U42" s="58">
-        <v>-9.0968471858617796</v>
+        <v>-9.1762935712990803</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="12" thickBot="1">
       <c r="A43" s="82"/>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="70"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="56">
         <v>121441.09</v>
       </c>
@@ -62750,10 +62832,10 @@
         <v>1.5407830265867899</v>
       </c>
       <c r="N43" s="56">
-        <v>3850570.85</v>
+        <v>3850611.87</v>
       </c>
       <c r="O43" s="56">
-        <v>37327854.909999996</v>
+        <v>37327895.93</v>
       </c>
       <c r="P43" s="56">
         <v>91</v>
@@ -62768,18 +62850,18 @@
         <v>1334.5174725274701</v>
       </c>
       <c r="T43" s="56">
-        <v>1507.39255172414</v>
+        <v>1507.6754482758599</v>
       </c>
       <c r="U43" s="58">
-        <v>-12.954126323221001</v>
+        <v>-12.9753247381948</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="12" thickBot="1">
       <c r="A44" s="82"/>
-      <c r="B44" s="69" t="s">
+      <c r="B44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="70"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="56">
         <v>59173.52</v>
       </c>
@@ -62833,10 +62915,10 @@
     </row>
     <row r="45" spans="1:21" ht="12" thickBot="1">
       <c r="A45" s="82"/>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="70"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
@@ -62862,10 +62944,10 @@
     </row>
     <row r="46" spans="1:21" ht="12" thickBot="1">
       <c r="A46" s="83"/>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="70"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="61">
         <v>8635.0465999999997</v>
       </c>
@@ -62919,6 +63001,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:U4"/>
+    <mergeCell ref="W1:W4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:A46"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
@@ -62935,34 +63045,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A1:U4"/>
-    <mergeCell ref="W1:W4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:A46"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62977,7 +63059,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H32"/>
+      <selection sqref="A1:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -63027,7 +63109,7 @@
         <v>116790</v>
       </c>
       <c r="D2" s="37">
-        <v>1000627.16202393</v>
+        <v>1357860.5551863201</v>
       </c>
       <c r="E2" s="37">
         <v>1127846.97574701</v>
@@ -63053,7 +63135,7 @@
         <v>9337</v>
       </c>
       <c r="D3" s="37">
-        <v>78383.110682051294</v>
+        <v>95134.298887179495</v>
       </c>
       <c r="E3" s="37">
         <v>73235.398297435895</v>
@@ -63079,7 +63161,7 @@
         <v>117259</v>
       </c>
       <c r="D4" s="37">
-        <v>160206.14875036699</v>
+        <v>207122.62738284501</v>
       </c>
       <c r="E4" s="37">
         <v>156002.98053191</v>
@@ -63105,7 +63187,7 @@
         <v>4877</v>
       </c>
       <c r="D5" s="37">
-        <v>68322.280769903897</v>
+        <v>89838.109602821307</v>
       </c>
       <c r="E5" s="37">
         <v>71358.969251811504</v>
@@ -63131,7 +63213,7 @@
         <v>15289</v>
       </c>
       <c r="D6" s="37">
-        <v>402629.93345213699</v>
+        <v>757617.18986239296</v>
       </c>
       <c r="E6" s="37">
         <v>532188.48059059796</v>
@@ -63157,7 +63239,7 @@
         <v>32192</v>
       </c>
       <c r="D7" s="37">
-        <v>311468.57576239301</v>
+        <v>453775.42191623902</v>
       </c>
       <c r="E7" s="37">
         <v>340270.83732734999</v>
@@ -63183,7 +63265,7 @@
         <v>43396</v>
       </c>
       <c r="D8" s="37">
-        <v>101524.538000855</v>
+        <v>103779.982445299</v>
       </c>
       <c r="E8" s="37">
         <v>81294.424194017105</v>
@@ -63209,7 +63291,7 @@
         <v>19171</v>
       </c>
       <c r="D9" s="37">
-        <v>102423.407652137</v>
+        <v>134360.245258974</v>
       </c>
       <c r="E9" s="37">
         <v>116911.042660684</v>
@@ -63235,7 +63317,7 @@
         <v>273641</v>
       </c>
       <c r="D10" s="37">
-        <v>1096565.0749649601</v>
+        <v>1227277.77105451</v>
       </c>
       <c r="E10" s="37">
         <v>1165103.2109854701</v>
@@ -63261,7 +63343,7 @@
         <v>95349</v>
       </c>
       <c r="D11" s="37">
-        <v>716967.76737521403</v>
+        <v>765664.80156324804</v>
       </c>
       <c r="E11" s="37">
         <v>714902.57201794896</v>
@@ -63287,7 +63369,7 @@
         <v>209603.91699999999</v>
       </c>
       <c r="D12" s="37">
-        <v>2142259.0349393198</v>
+        <v>2181088.5496633202</v>
       </c>
       <c r="E12" s="37">
         <v>1974311.2763854701</v>
@@ -63313,7 +63395,7 @@
         <v>17439</v>
       </c>
       <c r="D13" s="37">
-        <v>419867.26600598299</v>
+        <v>445997.604785198</v>
       </c>
       <c r="E13" s="37">
         <v>426197.73741196602</v>
@@ -63339,7 +63421,7 @@
         <v>101791</v>
       </c>
       <c r="D14" s="37">
-        <v>1434991.8585000001</v>
+        <v>1517801.7049564</v>
       </c>
       <c r="E14" s="37">
         <v>1431817.4468</v>
@@ -63365,7 +63447,7 @@
         <v>58524</v>
       </c>
       <c r="D15" s="37">
-        <v>308913.31298727798</v>
+        <v>319742.06961007498</v>
       </c>
       <c r="E15" s="37">
         <v>281321.76514045801</v>
@@ -63391,7 +63473,7 @@
         <v>158502.302</v>
       </c>
       <c r="D16" s="37">
-        <v>1145739.0804820601</v>
+        <v>1171032.9372227001</v>
       </c>
       <c r="E16" s="37">
         <v>1139045.7137559</v>
@@ -63417,7 +63499,7 @@
         <v>343859</v>
       </c>
       <c r="D17" s="37">
-        <v>4107522.7011623899</v>
+        <v>4886046.7844102597</v>
       </c>
       <c r="E17" s="37">
         <v>4933057.9229444396</v>
@@ -63443,7 +63525,7 @@
         <v>29292.392</v>
       </c>
       <c r="D18" s="37">
-        <v>270152.96377666597</v>
+        <v>273277.10619998199</v>
       </c>
       <c r="E18" s="37">
         <v>234773.94365209201</v>
@@ -63469,7 +63551,7 @@
         <v>13172.55</v>
       </c>
       <c r="D19" s="37">
-        <v>231374.51644775699</v>
+        <v>235101.12179585401</v>
       </c>
       <c r="E19" s="37">
         <v>213836.94349889099</v>
@@ -63495,7 +63577,7 @@
         <v>66491.273000000001</v>
       </c>
       <c r="D20" s="37">
-        <v>678823.24852987705</v>
+        <v>693660.54748610803</v>
       </c>
       <c r="E20" s="37">
         <v>570124.33582855598</v>
@@ -63521,7 +63603,7 @@
         <v>33927.692000000003</v>
       </c>
       <c r="D21" s="37">
-        <v>190909.980812639</v>
+        <v>193117.365900681</v>
       </c>
       <c r="E21" s="37">
         <v>140279.98490049699</v>
@@ -63547,7 +63629,7 @@
         <v>26564.094000000001</v>
       </c>
       <c r="D22" s="37">
-        <v>832558.69190442504</v>
+        <v>851334.75309920404</v>
       </c>
       <c r="E22" s="37">
         <v>811671.308815044</v>
@@ -63573,7 +63655,7 @@
         <v>140513.91500000001</v>
       </c>
       <c r="D23" s="37">
-        <v>541346.73062654899</v>
+        <v>547959.24120539799</v>
       </c>
       <c r="E23" s="37">
         <v>452178.71646060899</v>
@@ -63599,7 +63681,7 @@
         <v>134525.723</v>
       </c>
       <c r="D24" s="37">
-        <v>1122456.4532885</v>
+        <v>1141678.18856283</v>
       </c>
       <c r="E24" s="37">
         <v>983280.31065973698</v>
@@ -63625,7 +63707,7 @@
         <v>311908.68699999998</v>
       </c>
       <c r="D25" s="37">
-        <v>1273934.39573717</v>
+        <v>1290035.3693091201</v>
       </c>
       <c r="E25" s="37">
         <v>1293845.1920185799</v>
@@ -63651,7 +63733,7 @@
         <v>53456.855000000003</v>
       </c>
       <c r="D26" s="37">
-        <v>92451.477911058202</v>
+        <v>93194.950336063805</v>
       </c>
       <c r="E26" s="37">
         <v>71169.919774398993</v>
@@ -63677,7 +63759,7 @@
         <v>8606.5789999999997</v>
       </c>
       <c r="D27" s="37">
-        <v>195902.43640000001</v>
+        <v>197975.820650821</v>
       </c>
       <c r="E27" s="37">
         <v>174776.3659</v>
@@ -63703,7 +63785,7 @@
         <v>1333.873</v>
       </c>
       <c r="D28" s="37">
-        <v>7346.8761999999997</v>
+        <v>8209.5705675213703</v>
       </c>
       <c r="E28" s="37">
         <v>8065.9740000000002</v>
@@ -63755,7 +63837,7 @@
         <v>2223</v>
       </c>
       <c r="D30" s="37">
-        <v>448441.39680256398</v>
+        <v>452612.33697350399</v>
       </c>
       <c r="E30" s="37">
         <v>433596.94340854703</v>
@@ -63850,13 +63932,13 @@
         <v>70</v>
       </c>
       <c r="C34" s="34">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D34" s="34">
-        <v>253059.98</v>
+        <v>163970.15</v>
       </c>
       <c r="E34" s="34">
-        <v>264562.58</v>
+        <v>172938.07</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
@@ -63868,13 +63950,13 @@
         <v>71</v>
       </c>
       <c r="C35" s="34">
-        <v>205</v>
+        <v>493</v>
       </c>
       <c r="D35" s="34">
-        <v>447716.28</v>
+        <v>1164379.54</v>
       </c>
       <c r="E35" s="34">
-        <v>555179.77</v>
+        <v>1214564.45</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -63886,13 +63968,13 @@
         <v>72</v>
       </c>
       <c r="C36" s="34">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="D36" s="34">
-        <v>708780.39</v>
+        <v>593392.4</v>
       </c>
       <c r="E36" s="34">
-        <v>783828</v>
+        <v>664641.17000000004</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -63904,13 +63986,13 @@
         <v>73</v>
       </c>
       <c r="C37" s="34">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D37" s="34">
-        <v>389240.41</v>
+        <v>326996.81</v>
       </c>
       <c r="E37" s="34">
-        <v>474704.8</v>
+        <v>403478.18</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -63919,16 +64001,16 @@
     <row r="38" spans="1:8">
       <c r="A38" s="30"/>
       <c r="B38" s="33">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C38" s="34">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D38" s="34">
-        <v>0.55000000000000004</v>
+        <v>121441.09</v>
       </c>
       <c r="E38" s="34">
-        <v>3765</v>
+        <v>156562.41</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
@@ -63937,16 +64019,16 @@
     <row r="39" spans="1:8">
       <c r="A39" s="30"/>
       <c r="B39" s="33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" s="34">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="D39" s="34">
-        <v>218612.94</v>
+        <v>59173.52</v>
       </c>
       <c r="E39" s="34">
-        <v>271222.19</v>
+        <v>54850.15</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="30"/>
@@ -63955,16 +64037,16 @@
     <row r="40" spans="1:8">
       <c r="A40" s="30"/>
       <c r="B40" s="33">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C40" s="34">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D40" s="34">
-        <v>128763.3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="34">
-        <v>118043.99</v>
+        <v>0</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
